--- a/Informes/TP Anual 1/3- Diseño/Sensores y Actuadores.xlsx
+++ b/Informes/TP Anual 1/3- Diseño/Sensores y Actuadores.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="93">
   <si>
     <t>Nomenclatura</t>
   </si>
@@ -255,9 +255,6 @@
     <t>OK/Err</t>
   </si>
   <si>
-    <t>Voltaje</t>
-  </si>
-  <si>
     <t>Intensidad Corriente</t>
   </si>
   <si>
@@ -271,6 +268,33 @@
   </si>
   <si>
     <t>SSA0002</t>
+  </si>
+  <si>
+    <t>Voltaje Generado</t>
+  </si>
+  <si>
+    <t>Binario: OK/Error</t>
+  </si>
+  <si>
+    <t>100% - 333,3</t>
+  </si>
+  <si>
+    <t>100% - 40</t>
+  </si>
+  <si>
+    <t>100% - 1000</t>
+  </si>
+  <si>
+    <t>100% - 15</t>
+  </si>
+  <si>
+    <t>Notas</t>
+  </si>
+  <si>
+    <t>* Las presiones varíarán según la longitud y ángulo de las tuberías forzadas</t>
+  </si>
+  <si>
+    <t>* Los valores de la turbina están colocados en base a una turbina FRANCIS-Eje Vertical</t>
   </si>
 </sst>
 </file>
@@ -333,7 +357,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="13">
+  <borders count="19">
     <border>
       <left/>
       <right/>
@@ -515,11 +539,85 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="0"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="0"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="0"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color theme="3" tint="-0.24994659260841701"/>
+      </right>
+      <top style="thin">
+        <color theme="0"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="0"/>
+      </top>
+      <bottom style="medium">
+        <color theme="3" tint="-0.24994659260841701"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="0"/>
+      </top>
+      <bottom style="medium">
+        <color theme="3" tint="-0.24994659260841701"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color theme="3" tint="-0.24994659260841701"/>
+      </right>
+      <top style="thin">
+        <color theme="0"/>
+      </top>
+      <bottom style="medium">
+        <color theme="3" tint="-0.24994659260841701"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -531,13 +629,7 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -551,23 +643,8 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -581,15 +658,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -614,21 +682,12 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -638,15 +697,48 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -655,6 +747,39 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -950,15 +1075,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B1:K31"/>
+  <dimension ref="B1:K41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="L32" sqref="A32:L32"/>
+    <sheetView tabSelected="1" topLeftCell="E5" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H23" sqref="H23:K23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="3" width="11.42578125" style="1"/>
+    <col min="1" max="1" width="2.140625" style="1" customWidth="1"/>
+    <col min="2" max="3" width="11.42578125" style="1"/>
     <col min="4" max="4" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10.7109375" style="2" customWidth="1"/>
     <col min="6" max="6" width="46.85546875" style="1" customWidth="1"/>
@@ -970,701 +1096,856 @@
   <sheetData>
     <row r="1" spans="2:11" ht="15.75" thickBot="1"/>
     <row r="2" spans="2:11">
-      <c r="B2" s="11" t="s">
+      <c r="B2" s="33" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="12" t="s">
+      <c r="C2" s="31" t="s">
         <v>76</v>
       </c>
-      <c r="D2" s="12" t="s">
+      <c r="D2" s="31" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="12" t="s">
+      <c r="E2" s="31" t="s">
         <v>2</v>
       </c>
-      <c r="F2" s="12" t="s">
+      <c r="F2" s="31" t="s">
         <v>1</v>
       </c>
-      <c r="G2" s="12" t="s">
+      <c r="G2" s="31" t="s">
         <v>9</v>
       </c>
-      <c r="H2" s="12" t="s">
+      <c r="H2" s="31" t="s">
         <v>4</v>
       </c>
-      <c r="I2" s="12"/>
-      <c r="J2" s="12"/>
-      <c r="K2" s="13"/>
+      <c r="I2" s="31"/>
+      <c r="J2" s="31"/>
+      <c r="K2" s="37"/>
     </row>
     <row r="3" spans="2:11" ht="24" customHeight="1" thickBot="1">
-      <c r="B3" s="22"/>
-      <c r="C3" s="23"/>
-      <c r="D3" s="23"/>
-      <c r="E3" s="23"/>
-      <c r="F3" s="23"/>
-      <c r="G3" s="23"/>
-      <c r="H3" s="24" t="s">
+      <c r="B3" s="34"/>
+      <c r="C3" s="32"/>
+      <c r="D3" s="32"/>
+      <c r="E3" s="32"/>
+      <c r="F3" s="32"/>
+      <c r="G3" s="32"/>
+      <c r="H3" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="I3" s="24" t="s">
+      <c r="I3" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="J3" s="24" t="s">
+      <c r="J3" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="K3" s="25" t="s">
+      <c r="K3" s="15" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="4" spans="2:11" ht="15" customHeight="1">
-      <c r="B4" s="40" t="s">
+      <c r="B4" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="C4" s="26">
+      <c r="C4" s="16">
         <v>40001</v>
       </c>
-      <c r="D4" s="26" t="s">
+      <c r="D4" s="16" t="s">
         <v>75</v>
       </c>
-      <c r="E4" s="26" t="s">
+      <c r="E4" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="F4" s="27" t="s">
+      <c r="F4" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="G4" s="26" t="s">
+      <c r="G4" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="H4" s="27"/>
-      <c r="I4" s="27"/>
-      <c r="J4" s="27"/>
-      <c r="K4" s="28"/>
+      <c r="H4" s="16">
+        <v>10</v>
+      </c>
+      <c r="I4" s="16">
+        <v>25</v>
+      </c>
+      <c r="J4" s="16">
+        <v>55</v>
+      </c>
+      <c r="K4" s="44">
+        <v>70</v>
+      </c>
     </row>
     <row r="5" spans="2:11" ht="30">
-      <c r="B5" s="41"/>
-      <c r="C5" s="4">
+      <c r="B5" s="40"/>
+      <c r="C5" s="3">
         <v>40002</v>
       </c>
-      <c r="D5" s="4" t="s">
+      <c r="D5" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="E5" s="4" t="s">
+      <c r="E5" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="F5" s="5" t="s">
+      <c r="F5" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="G5" s="4" t="s">
+      <c r="G5" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="H5" s="5"/>
-      <c r="I5" s="5"/>
-      <c r="J5" s="5"/>
-      <c r="K5" s="14"/>
+      <c r="H5" s="3">
+        <v>-4</v>
+      </c>
+      <c r="I5" s="3">
+        <v>-2</v>
+      </c>
+      <c r="J5" s="3">
+        <v>-0.05</v>
+      </c>
+      <c r="K5" s="9">
+        <v>0</v>
+      </c>
     </row>
     <row r="6" spans="2:11">
-      <c r="B6" s="41"/>
-      <c r="C6" s="4">
+      <c r="B6" s="40"/>
+      <c r="C6" s="3">
         <v>40003</v>
       </c>
-      <c r="D6" s="4" t="s">
+      <c r="D6" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="E6" s="4" t="s">
+      <c r="E6" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="F6" s="5" t="s">
+      <c r="F6" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="G6" s="4" t="s">
+      <c r="G6" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="H6" s="3" t="s">
+      <c r="H6" s="38" t="s">
         <v>24</v>
       </c>
-      <c r="I6" s="3"/>
-      <c r="J6" s="3"/>
-      <c r="K6" s="15"/>
+      <c r="I6" s="38"/>
+      <c r="J6" s="38"/>
+      <c r="K6" s="39"/>
     </row>
     <row r="7" spans="2:11">
-      <c r="B7" s="41"/>
-      <c r="C7" s="4">
+      <c r="B7" s="40"/>
+      <c r="C7" s="3">
         <v>40004</v>
       </c>
-      <c r="D7" s="4" t="s">
+      <c r="D7" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="E7" s="4" t="s">
+      <c r="E7" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="F7" s="5" t="s">
+      <c r="F7" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="G7" s="4" t="s">
+      <c r="G7" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="H7" s="3" t="s">
+      <c r="H7" s="38" t="s">
         <v>24</v>
       </c>
-      <c r="I7" s="3"/>
-      <c r="J7" s="3"/>
-      <c r="K7" s="15"/>
+      <c r="I7" s="38"/>
+      <c r="J7" s="38"/>
+      <c r="K7" s="39"/>
     </row>
     <row r="8" spans="2:11" ht="15.75" thickBot="1">
-      <c r="B8" s="42"/>
-      <c r="C8" s="18">
+      <c r="B8" s="30"/>
+      <c r="C8" s="11">
         <v>40005</v>
       </c>
-      <c r="D8" s="18" t="s">
+      <c r="D8" s="11" t="s">
         <v>71</v>
       </c>
-      <c r="E8" s="18" t="s">
+      <c r="E8" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="F8" s="19" t="s">
+      <c r="F8" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="G8" s="18" t="s">
+      <c r="G8" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="H8" s="18"/>
-      <c r="I8" s="18"/>
-      <c r="J8" s="18"/>
-      <c r="K8" s="37"/>
+      <c r="H8" s="13">
+        <v>3</v>
+      </c>
+      <c r="I8" s="13">
+        <v>5</v>
+      </c>
+      <c r="J8" s="13">
+        <v>12</v>
+      </c>
+      <c r="K8" s="24">
+        <v>15</v>
+      </c>
     </row>
     <row r="9" spans="2:11" ht="18" customHeight="1">
-      <c r="B9" s="43" t="s">
+      <c r="B9" s="41" t="s">
         <v>45</v>
       </c>
-      <c r="C9" s="29">
+      <c r="C9" s="19">
         <v>40001</v>
       </c>
-      <c r="D9" s="29" t="s">
+      <c r="D9" s="19" t="s">
         <v>70</v>
       </c>
-      <c r="E9" s="30" t="s">
+      <c r="E9" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="F9" s="31" t="s">
+      <c r="F9" s="21" t="s">
         <v>21</v>
       </c>
-      <c r="G9" s="29" t="s">
+      <c r="G9" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="H9" s="32"/>
-      <c r="I9" s="32"/>
-      <c r="J9" s="32"/>
-      <c r="K9" s="33"/>
+      <c r="H9" s="19">
+        <v>3</v>
+      </c>
+      <c r="I9" s="19">
+        <v>5</v>
+      </c>
+      <c r="J9" s="19">
+        <v>12</v>
+      </c>
+      <c r="K9" s="51">
+        <v>15</v>
+      </c>
     </row>
     <row r="10" spans="2:11">
-      <c r="B10" s="44"/>
-      <c r="C10" s="7">
+      <c r="B10" s="42"/>
+      <c r="C10" s="5">
         <v>40002</v>
       </c>
-      <c r="D10" s="7" t="s">
+      <c r="D10" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="E10" s="8" t="s">
+      <c r="E10" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="F10" s="9" t="s">
+      <c r="F10" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="G10" s="7" t="s">
+      <c r="G10" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="H10" s="10"/>
-      <c r="I10" s="10"/>
-      <c r="J10" s="10"/>
-      <c r="K10" s="16"/>
+      <c r="H10" s="5">
+        <v>3</v>
+      </c>
+      <c r="I10" s="5">
+        <v>5</v>
+      </c>
+      <c r="J10" s="5">
+        <v>12</v>
+      </c>
+      <c r="K10" s="10">
+        <v>15</v>
+      </c>
     </row>
     <row r="11" spans="2:11">
-      <c r="B11" s="44"/>
-      <c r="C11" s="7">
+      <c r="B11" s="42"/>
+      <c r="C11" s="5">
         <v>40003</v>
       </c>
-      <c r="D11" s="7" t="s">
+      <c r="D11" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="E11" s="7" t="s">
+      <c r="E11" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="F11" s="9" t="s">
+      <c r="F11" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="G11" s="7" t="s">
+      <c r="G11" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H11" s="6" t="s">
+      <c r="H11" s="35" t="s">
         <v>24</v>
       </c>
-      <c r="I11" s="6"/>
-      <c r="J11" s="6"/>
-      <c r="K11" s="17"/>
+      <c r="I11" s="35"/>
+      <c r="J11" s="35"/>
+      <c r="K11" s="36"/>
     </row>
     <row r="12" spans="2:11">
-      <c r="B12" s="44"/>
-      <c r="C12" s="7">
+      <c r="B12" s="42"/>
+      <c r="C12" s="5">
         <v>40004</v>
       </c>
-      <c r="D12" s="7" t="s">
+      <c r="D12" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="E12" s="7" t="s">
+      <c r="E12" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="F12" s="10" t="s">
+      <c r="F12" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="G12" s="7" t="s">
+      <c r="G12" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H12" s="6" t="s">
+      <c r="H12" s="35" t="s">
         <v>24</v>
       </c>
-      <c r="I12" s="6"/>
-      <c r="J12" s="6"/>
-      <c r="K12" s="17"/>
+      <c r="I12" s="35"/>
+      <c r="J12" s="35"/>
+      <c r="K12" s="36"/>
     </row>
     <row r="13" spans="2:11">
-      <c r="B13" s="44"/>
-      <c r="C13" s="7">
+      <c r="B13" s="42"/>
+      <c r="C13" s="5">
         <v>40005</v>
       </c>
-      <c r="D13" s="7" t="s">
+      <c r="D13" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="E13" s="7" t="s">
+      <c r="E13" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="F13" s="10" t="s">
+      <c r="F13" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="G13" s="7" t="s">
+      <c r="G13" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="H13" s="10"/>
-      <c r="I13" s="10"/>
-      <c r="J13" s="10"/>
-      <c r="K13" s="16"/>
+      <c r="H13" s="5">
+        <v>3</v>
+      </c>
+      <c r="I13" s="5">
+        <v>5</v>
+      </c>
+      <c r="J13" s="5">
+        <v>12</v>
+      </c>
+      <c r="K13" s="10">
+        <v>15</v>
+      </c>
     </row>
     <row r="14" spans="2:11">
-      <c r="B14" s="44"/>
-      <c r="C14" s="7">
+      <c r="B14" s="42"/>
+      <c r="C14" s="5">
         <v>40006</v>
       </c>
-      <c r="D14" s="7" t="s">
+      <c r="D14" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="E14" s="7" t="s">
+      <c r="E14" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="F14" s="10" t="s">
+      <c r="F14" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="G14" s="7" t="s">
+      <c r="G14" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H14" s="6" t="s">
+      <c r="H14" s="35" t="s">
         <v>46</v>
       </c>
-      <c r="I14" s="6"/>
-      <c r="J14" s="6"/>
-      <c r="K14" s="17"/>
+      <c r="I14" s="35"/>
+      <c r="J14" s="35"/>
+      <c r="K14" s="36"/>
     </row>
     <row r="15" spans="2:11">
-      <c r="B15" s="44"/>
-      <c r="C15" s="7">
+      <c r="B15" s="42"/>
+      <c r="C15" s="5">
         <v>40007</v>
       </c>
-      <c r="D15" s="7" t="s">
+      <c r="D15" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="E15" s="7" t="s">
+      <c r="E15" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="F15" s="10" t="s">
+      <c r="F15" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="G15" s="7" t="s">
+      <c r="G15" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H15" s="6" t="s">
+      <c r="H15" s="35" t="s">
         <v>46</v>
       </c>
-      <c r="I15" s="6"/>
-      <c r="J15" s="6"/>
-      <c r="K15" s="17"/>
+      <c r="I15" s="35"/>
+      <c r="J15" s="35"/>
+      <c r="K15" s="36"/>
     </row>
     <row r="16" spans="2:11">
-      <c r="B16" s="44"/>
-      <c r="C16" s="7">
+      <c r="B16" s="42"/>
+      <c r="C16" s="5">
         <v>40008</v>
       </c>
-      <c r="D16" s="7" t="s">
+      <c r="D16" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="E16" s="7" t="s">
+      <c r="E16" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="F16" s="10" t="s">
+      <c r="F16" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="G16" s="7" t="s">
+      <c r="G16" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="H16" s="10"/>
-      <c r="I16" s="10"/>
-      <c r="J16" s="10"/>
-      <c r="K16" s="16"/>
+      <c r="H16" s="5">
+        <v>0</v>
+      </c>
+      <c r="I16" s="5">
+        <v>20</v>
+      </c>
+      <c r="J16" s="5">
+        <v>40</v>
+      </c>
+      <c r="K16" s="10">
+        <v>80</v>
+      </c>
     </row>
     <row r="17" spans="2:11">
-      <c r="B17" s="44"/>
-      <c r="C17" s="7">
+      <c r="B17" s="42"/>
+      <c r="C17" s="5">
         <v>40009</v>
       </c>
-      <c r="D17" s="7" t="s">
+      <c r="D17" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="E17" s="7" t="s">
+      <c r="E17" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="F17" s="10" t="s">
+      <c r="F17" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="G17" s="7" t="s">
+      <c r="G17" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="H17" s="10"/>
-      <c r="I17" s="10"/>
-      <c r="J17" s="10"/>
-      <c r="K17" s="16"/>
+      <c r="H17" s="5">
+        <v>0</v>
+      </c>
+      <c r="I17" s="5">
+        <v>20</v>
+      </c>
+      <c r="J17" s="5">
+        <v>40</v>
+      </c>
+      <c r="K17" s="10">
+        <v>80</v>
+      </c>
     </row>
     <row r="18" spans="2:11">
-      <c r="B18" s="44"/>
-      <c r="C18" s="7">
+      <c r="B18" s="42"/>
+      <c r="C18" s="5">
         <v>40010</v>
       </c>
-      <c r="D18" s="7" t="s">
+      <c r="D18" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="E18" s="7" t="s">
+      <c r="E18" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="F18" s="10" t="s">
+      <c r="F18" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="G18" s="7" t="s">
+      <c r="G18" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="H18" s="10"/>
-      <c r="I18" s="10"/>
-      <c r="J18" s="10"/>
-      <c r="K18" s="16"/>
+      <c r="H18" s="5">
+        <v>0</v>
+      </c>
+      <c r="I18" s="5">
+        <v>30</v>
+      </c>
+      <c r="J18" s="5">
+        <v>60</v>
+      </c>
+      <c r="K18" s="10">
+        <v>80</v>
+      </c>
     </row>
     <row r="19" spans="2:11" ht="15.75" customHeight="1">
-      <c r="B19" s="44"/>
-      <c r="C19" s="7">
+      <c r="B19" s="42"/>
+      <c r="C19" s="5">
         <v>40011</v>
       </c>
-      <c r="D19" s="7" t="s">
+      <c r="D19" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="E19" s="7" t="s">
+      <c r="E19" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="F19" s="10" t="s">
+      <c r="F19" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="G19" s="7" t="s">
+      <c r="G19" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H19" s="6" t="s">
+      <c r="H19" s="35" t="s">
         <v>42</v>
       </c>
-      <c r="I19" s="6"/>
-      <c r="J19" s="6"/>
-      <c r="K19" s="17"/>
+      <c r="I19" s="35"/>
+      <c r="J19" s="35"/>
+      <c r="K19" s="36"/>
     </row>
     <row r="20" spans="2:11" ht="15.75" customHeight="1">
-      <c r="B20" s="44"/>
-      <c r="C20" s="7">
+      <c r="B20" s="42"/>
+      <c r="C20" s="5">
         <v>40012</v>
       </c>
-      <c r="D20" s="7" t="s">
+      <c r="D20" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="E20" s="7" t="s">
+      <c r="E20" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="F20" s="10" t="s">
+      <c r="F20" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="G20" s="7" t="s">
+      <c r="G20" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="H20" s="7"/>
-      <c r="I20" s="10"/>
-      <c r="J20" s="10"/>
-      <c r="K20" s="16"/>
+      <c r="H20" s="45" t="s">
+        <v>85</v>
+      </c>
+      <c r="I20" s="46"/>
+      <c r="J20" s="46"/>
+      <c r="K20" s="47"/>
     </row>
     <row r="21" spans="2:11">
-      <c r="B21" s="44"/>
-      <c r="C21" s="7">
+      <c r="B21" s="42"/>
+      <c r="C21" s="5">
         <v>40013</v>
       </c>
-      <c r="D21" s="7" t="s">
+      <c r="D21" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="E21" s="7" t="s">
+      <c r="E21" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="F21" s="10" t="s">
+      <c r="F21" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="G21" s="7" t="s">
+      <c r="G21" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="H21" s="10"/>
-      <c r="I21" s="10"/>
-      <c r="J21" s="10"/>
-      <c r="K21" s="16"/>
+      <c r="H21" s="45" t="s">
+        <v>87</v>
+      </c>
+      <c r="I21" s="46"/>
+      <c r="J21" s="46"/>
+      <c r="K21" s="47"/>
     </row>
     <row r="22" spans="2:11">
-      <c r="B22" s="44"/>
-      <c r="C22" s="7">
+      <c r="B22" s="42"/>
+      <c r="C22" s="5">
         <v>40014</v>
       </c>
-      <c r="D22" s="7" t="s">
+      <c r="D22" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="E22" s="7" t="s">
+      <c r="E22" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="F22" s="10" t="s">
+      <c r="F22" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="G22" s="7" t="s">
+      <c r="G22" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="H22" s="10"/>
-      <c r="I22" s="10"/>
-      <c r="J22" s="10"/>
-      <c r="K22" s="16"/>
+      <c r="H22" s="45" t="s">
+        <v>86</v>
+      </c>
+      <c r="I22" s="46"/>
+      <c r="J22" s="46"/>
+      <c r="K22" s="47"/>
     </row>
     <row r="23" spans="2:11">
-      <c r="B23" s="44"/>
-      <c r="C23" s="7">
+      <c r="B23" s="42"/>
+      <c r="C23" s="5">
         <v>40015</v>
       </c>
-      <c r="D23" s="7" t="s">
+      <c r="D23" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="E23" s="7" t="s">
+      <c r="E23" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="F23" s="10" t="s">
+      <c r="F23" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="G23" s="7" t="s">
+      <c r="G23" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H23" s="6" t="s">
+      <c r="H23" s="35" t="s">
         <v>46</v>
       </c>
-      <c r="I23" s="6"/>
-      <c r="J23" s="6"/>
-      <c r="K23" s="17"/>
+      <c r="I23" s="35"/>
+      <c r="J23" s="35"/>
+      <c r="K23" s="36"/>
     </row>
     <row r="24" spans="2:11" ht="18" customHeight="1">
-      <c r="B24" s="44"/>
-      <c r="C24" s="7">
+      <c r="B24" s="42"/>
+      <c r="C24" s="5">
         <v>40016</v>
       </c>
-      <c r="D24" s="7" t="s">
+      <c r="D24" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="E24" s="7" t="s">
+      <c r="E24" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="F24" s="10" t="s">
+      <c r="F24" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="G24" s="7" t="s">
+      <c r="G24" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H24" s="6" t="s">
+      <c r="H24" s="35" t="s">
         <v>42</v>
       </c>
-      <c r="I24" s="6"/>
-      <c r="J24" s="6"/>
-      <c r="K24" s="17"/>
+      <c r="I24" s="35"/>
+      <c r="J24" s="35"/>
+      <c r="K24" s="36"/>
     </row>
     <row r="25" spans="2:11" ht="18" customHeight="1">
-      <c r="B25" s="44"/>
-      <c r="C25" s="7">
+      <c r="B25" s="42"/>
+      <c r="C25" s="5">
         <v>40017</v>
       </c>
-      <c r="D25" s="7" t="s">
+      <c r="D25" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="E25" s="7" t="s">
+      <c r="E25" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="F25" s="10" t="s">
+      <c r="F25" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="G25" s="7" t="s">
+      <c r="G25" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H25" s="6" t="s">
+      <c r="H25" s="35" t="s">
         <v>42</v>
       </c>
-      <c r="I25" s="6"/>
-      <c r="J25" s="6"/>
-      <c r="K25" s="17"/>
+      <c r="I25" s="35"/>
+      <c r="J25" s="35"/>
+      <c r="K25" s="36"/>
     </row>
     <row r="26" spans="2:11" ht="18" customHeight="1">
-      <c r="B26" s="44"/>
-      <c r="C26" s="7">
+      <c r="B26" s="42"/>
+      <c r="C26" s="5">
         <v>40018</v>
       </c>
-      <c r="D26" s="7" t="s">
+      <c r="D26" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="E26" s="7" t="s">
+      <c r="E26" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="F26" s="10" t="s">
+      <c r="F26" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="G26" s="7" t="s">
+      <c r="G26" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H26" s="6" t="s">
+      <c r="H26" s="35" t="s">
         <v>42</v>
       </c>
-      <c r="I26" s="6"/>
-      <c r="J26" s="6"/>
-      <c r="K26" s="17"/>
+      <c r="I26" s="35"/>
+      <c r="J26" s="35"/>
+      <c r="K26" s="36"/>
     </row>
     <row r="27" spans="2:11" ht="18" customHeight="1">
-      <c r="B27" s="44"/>
-      <c r="C27" s="7">
+      <c r="B27" s="42"/>
+      <c r="C27" s="5">
         <v>40019</v>
       </c>
-      <c r="D27" s="7" t="s">
+      <c r="D27" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="E27" s="7" t="s">
+      <c r="E27" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="F27" s="10" t="s">
+      <c r="F27" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="G27" s="7" t="s">
+      <c r="G27" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H27" s="6" t="s">
+      <c r="H27" s="35" t="s">
         <v>42</v>
       </c>
-      <c r="I27" s="6"/>
-      <c r="J27" s="6"/>
-      <c r="K27" s="17"/>
+      <c r="I27" s="35"/>
+      <c r="J27" s="35"/>
+      <c r="K27" s="36"/>
     </row>
     <row r="28" spans="2:11" ht="18" customHeight="1">
-      <c r="B28" s="44"/>
-      <c r="C28" s="7">
+      <c r="B28" s="42"/>
+      <c r="C28" s="5">
         <v>40020</v>
       </c>
-      <c r="D28" s="7" t="s">
+      <c r="D28" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="E28" s="7" t="s">
+      <c r="E28" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="F28" s="10" t="s">
+      <c r="F28" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="G28" s="25" t="s">
         <v>80</v>
       </c>
-      <c r="G28" s="38" t="s">
+      <c r="H28" s="45" t="s">
+        <v>88</v>
+      </c>
+      <c r="I28" s="46"/>
+      <c r="J28" s="46"/>
+      <c r="K28" s="47"/>
+    </row>
+    <row r="29" spans="2:11" ht="18" customHeight="1" thickBot="1">
+      <c r="B29" s="43"/>
+      <c r="C29" s="22">
+        <v>40021</v>
+      </c>
+      <c r="D29" s="22" t="s">
+        <v>50</v>
+      </c>
+      <c r="E29" s="22" t="s">
+        <v>15</v>
+      </c>
+      <c r="F29" s="23" t="s">
+        <v>84</v>
+      </c>
+      <c r="G29" s="26" t="s">
         <v>81</v>
       </c>
-      <c r="H28" s="10"/>
-      <c r="I28" s="10"/>
-      <c r="J28" s="10"/>
-      <c r="K28" s="16"/>
-    </row>
-    <row r="29" spans="2:11" ht="18" customHeight="1" thickBot="1">
-      <c r="B29" s="45"/>
-      <c r="C29" s="34">
-        <v>40021</v>
-      </c>
-      <c r="D29" s="34" t="s">
-        <v>50</v>
-      </c>
-      <c r="E29" s="34" t="s">
+      <c r="H29" s="48" t="s">
+        <v>89</v>
+      </c>
+      <c r="I29" s="49"/>
+      <c r="J29" s="49"/>
+      <c r="K29" s="50"/>
+    </row>
+    <row r="30" spans="2:11">
+      <c r="B30" s="29" t="s">
+        <v>47</v>
+      </c>
+      <c r="C30" s="16">
+        <v>40001</v>
+      </c>
+      <c r="D30" s="16" t="s">
+        <v>82</v>
+      </c>
+      <c r="E30" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="F29" s="35" t="s">
-        <v>79</v>
-      </c>
-      <c r="G29" s="39" t="s">
-        <v>82</v>
-      </c>
-      <c r="H29" s="35"/>
-      <c r="I29" s="35"/>
-      <c r="J29" s="35"/>
-      <c r="K29" s="36"/>
-    </row>
-    <row r="30" spans="2:11">
-      <c r="B30" s="40" t="s">
-        <v>47</v>
-      </c>
-      <c r="C30" s="26">
-        <v>40001</v>
-      </c>
-      <c r="D30" s="26" t="s">
+      <c r="F30" s="17" t="s">
+        <v>48</v>
+      </c>
+      <c r="G30" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="H30" s="17"/>
+      <c r="I30" s="17"/>
+      <c r="J30" s="17"/>
+      <c r="K30" s="18"/>
+    </row>
+    <row r="31" spans="2:11" ht="15.75" thickBot="1">
+      <c r="B31" s="30"/>
+      <c r="C31" s="11">
+        <v>40002</v>
+      </c>
+      <c r="D31" s="11" t="s">
         <v>83</v>
       </c>
-      <c r="E30" s="26" t="s">
-        <v>15</v>
-      </c>
-      <c r="F30" s="27" t="s">
-        <v>48</v>
-      </c>
-      <c r="G30" s="26" t="s">
-        <v>16</v>
-      </c>
-      <c r="H30" s="27"/>
-      <c r="I30" s="27"/>
-      <c r="J30" s="27"/>
-      <c r="K30" s="28"/>
-    </row>
-    <row r="31" spans="2:11" ht="15.75" thickBot="1">
-      <c r="B31" s="42"/>
-      <c r="C31" s="18">
-        <v>40002</v>
-      </c>
-      <c r="D31" s="18" t="s">
-        <v>84</v>
-      </c>
-      <c r="E31" s="18" t="s">
+      <c r="E31" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="F31" s="19" t="s">
+      <c r="F31" s="12" t="s">
         <v>49</v>
       </c>
-      <c r="G31" s="18" t="s">
+      <c r="G31" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="H31" s="20" t="s">
+      <c r="H31" s="27" t="s">
         <v>42</v>
       </c>
-      <c r="I31" s="20"/>
-      <c r="J31" s="20"/>
-      <c r="K31" s="21"/>
+      <c r="I31" s="27"/>
+      <c r="J31" s="27"/>
+      <c r="K31" s="28"/>
+    </row>
+    <row r="33" spans="2:6">
+      <c r="B33" s="1" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="34" spans="2:6">
+      <c r="B34" s="52" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="35" spans="2:6">
+      <c r="B35" s="53" t="s">
+        <v>92</v>
+      </c>
+      <c r="C35" s="53"/>
+      <c r="D35" s="53"/>
+      <c r="E35" s="54"/>
+      <c r="F35" s="53"/>
+    </row>
+    <row r="36" spans="2:6">
+      <c r="B36" s="53"/>
+      <c r="C36" s="53"/>
+      <c r="D36" s="53"/>
+      <c r="E36" s="54"/>
+      <c r="F36" s="53"/>
+    </row>
+    <row r="37" spans="2:6">
+      <c r="B37" s="53"/>
+      <c r="C37" s="53"/>
+      <c r="D37" s="53"/>
+      <c r="E37" s="54"/>
+      <c r="F37" s="53"/>
+    </row>
+    <row r="38" spans="2:6">
+      <c r="B38" s="53"/>
+      <c r="C38" s="53"/>
+      <c r="D38" s="53"/>
+      <c r="E38" s="54"/>
+      <c r="F38" s="53"/>
+    </row>
+    <row r="39" spans="2:6">
+      <c r="B39" s="53"/>
+      <c r="C39" s="53"/>
+      <c r="D39" s="53"/>
+      <c r="E39" s="54"/>
+      <c r="F39" s="53"/>
+    </row>
+    <row r="40" spans="2:6">
+      <c r="B40" s="53"/>
+      <c r="C40" s="53"/>
+      <c r="D40" s="53"/>
+      <c r="E40" s="54"/>
+      <c r="F40" s="53"/>
+    </row>
+    <row r="41" spans="2:6">
+      <c r="B41" s="53"/>
+      <c r="C41" s="53"/>
+      <c r="D41" s="53"/>
+      <c r="E41" s="54"/>
+      <c r="F41" s="53"/>
     </row>
   </sheetData>
-  <mergeCells count="23">
+  <mergeCells count="28">
+    <mergeCell ref="B4:B8"/>
+    <mergeCell ref="B9:B29"/>
+    <mergeCell ref="H20:K20"/>
+    <mergeCell ref="H22:K22"/>
+    <mergeCell ref="H21:K21"/>
+    <mergeCell ref="H28:K28"/>
+    <mergeCell ref="H29:K29"/>
+    <mergeCell ref="H2:K2"/>
+    <mergeCell ref="G2:G3"/>
+    <mergeCell ref="H6:K6"/>
+    <mergeCell ref="H7:K7"/>
+    <mergeCell ref="H11:K11"/>
     <mergeCell ref="H31:K31"/>
     <mergeCell ref="B30:B31"/>
     <mergeCell ref="F2:F3"/>
@@ -1681,13 +1962,6 @@
     <mergeCell ref="H23:K23"/>
     <mergeCell ref="H15:K15"/>
     <mergeCell ref="H14:K14"/>
-    <mergeCell ref="H2:K2"/>
-    <mergeCell ref="G2:G3"/>
-    <mergeCell ref="H6:K6"/>
-    <mergeCell ref="H7:K7"/>
-    <mergeCell ref="H11:K11"/>
-    <mergeCell ref="B4:B8"/>
-    <mergeCell ref="B9:B29"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>

--- a/Informes/TP Anual 1/3- Diseño/Sensores y Actuadores.xlsx
+++ b/Informes/TP Anual 1/3- Diseño/Sensores y Actuadores.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="120" windowWidth="27315" windowHeight="13095"/>
@@ -300,18 +300,11 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="4">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -617,7 +610,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="55">
+  <cellXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -634,10 +627,10 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -658,10 +651,10 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -676,10 +669,10 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -691,82 +684,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -780,6 +698,78 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -787,6 +777,11 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -865,6 +860,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -899,6 +895,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1074,14 +1071,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:K41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E5" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H23" sqref="H23:K23"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H12" sqref="H12:K12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="2.140625" style="1" customWidth="1"/>
     <col min="2" max="3" width="11.42578125" style="1"/>
@@ -1094,40 +1091,40 @@
     <col min="12" max="16384" width="11.42578125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:11" ht="15.75" thickBot="1"/>
-    <row r="2" spans="2:11">
-      <c r="B2" s="33" t="s">
+    <row r="1" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B2" s="51" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="31" t="s">
+      <c r="C2" s="42" t="s">
         <v>76</v>
       </c>
-      <c r="D2" s="31" t="s">
+      <c r="D2" s="42" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="31" t="s">
+      <c r="E2" s="42" t="s">
         <v>2</v>
       </c>
-      <c r="F2" s="31" t="s">
+      <c r="F2" s="42" t="s">
         <v>1</v>
       </c>
-      <c r="G2" s="31" t="s">
+      <c r="G2" s="42" t="s">
         <v>9</v>
       </c>
-      <c r="H2" s="31" t="s">
+      <c r="H2" s="42" t="s">
         <v>4</v>
       </c>
-      <c r="I2" s="31"/>
-      <c r="J2" s="31"/>
-      <c r="K2" s="37"/>
-    </row>
-    <row r="3" spans="2:11" ht="24" customHeight="1" thickBot="1">
-      <c r="B3" s="34"/>
-      <c r="C3" s="32"/>
-      <c r="D3" s="32"/>
-      <c r="E3" s="32"/>
-      <c r="F3" s="32"/>
-      <c r="G3" s="32"/>
+      <c r="I2" s="42"/>
+      <c r="J2" s="42"/>
+      <c r="K2" s="43"/>
+    </row>
+    <row r="3" spans="2:11" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="52"/>
+      <c r="C3" s="44"/>
+      <c r="D3" s="44"/>
+      <c r="E3" s="44"/>
+      <c r="F3" s="44"/>
+      <c r="G3" s="44"/>
       <c r="H3" s="14" t="s">
         <v>5</v>
       </c>
@@ -1141,8 +1138,8 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="2:11" ht="15" customHeight="1">
-      <c r="B4" s="29" t="s">
+    <row r="4" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="30" t="s">
         <v>20</v>
       </c>
       <c r="C4" s="16">
@@ -1169,12 +1166,12 @@
       <c r="J4" s="16">
         <v>55</v>
       </c>
-      <c r="K4" s="44">
+      <c r="K4" s="25">
         <v>70</v>
       </c>
     </row>
-    <row r="5" spans="2:11" ht="30">
-      <c r="B5" s="40"/>
+    <row r="5" spans="2:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="B5" s="31"/>
       <c r="C5" s="3">
         <v>40002</v>
       </c>
@@ -1203,8 +1200,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="2:11">
-      <c r="B6" s="40"/>
+    <row r="6" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B6" s="31"/>
       <c r="C6" s="3">
         <v>40003</v>
       </c>
@@ -1220,15 +1217,15 @@
       <c r="G6" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="H6" s="38" t="s">
+      <c r="H6" s="45" t="s">
         <v>24</v>
       </c>
-      <c r="I6" s="38"/>
-      <c r="J6" s="38"/>
-      <c r="K6" s="39"/>
-    </row>
-    <row r="7" spans="2:11">
-      <c r="B7" s="40"/>
+      <c r="I6" s="45"/>
+      <c r="J6" s="45"/>
+      <c r="K6" s="46"/>
+    </row>
+    <row r="7" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B7" s="31"/>
       <c r="C7" s="3">
         <v>40004</v>
       </c>
@@ -1244,15 +1241,15 @@
       <c r="G7" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="H7" s="38" t="s">
+      <c r="H7" s="45" t="s">
         <v>24</v>
       </c>
-      <c r="I7" s="38"/>
-      <c r="J7" s="38"/>
-      <c r="K7" s="39"/>
-    </row>
-    <row r="8" spans="2:11" ht="15.75" thickBot="1">
-      <c r="B8" s="30"/>
+      <c r="I7" s="45"/>
+      <c r="J7" s="45"/>
+      <c r="K7" s="46"/>
+    </row>
+    <row r="8" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="32"/>
       <c r="C8" s="11">
         <v>40005</v>
       </c>
@@ -1281,8 +1278,8 @@
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="2:11" ht="18" customHeight="1">
-      <c r="B9" s="41" t="s">
+    <row r="9" spans="2:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="33" t="s">
         <v>45</v>
       </c>
       <c r="C9" s="19">
@@ -1309,12 +1306,12 @@
       <c r="J9" s="19">
         <v>12</v>
       </c>
-      <c r="K9" s="51">
+      <c r="K9" s="26">
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="2:11">
-      <c r="B10" s="42"/>
+    <row r="10" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B10" s="34"/>
       <c r="C10" s="5">
         <v>40002</v>
       </c>
@@ -1343,8 +1340,8 @@
         <v>15</v>
       </c>
     </row>
-    <row r="11" spans="2:11">
-      <c r="B11" s="42"/>
+    <row r="11" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B11" s="34"/>
       <c r="C11" s="5">
         <v>40003</v>
       </c>
@@ -1360,15 +1357,15 @@
       <c r="G11" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H11" s="35" t="s">
+      <c r="H11" s="47" t="s">
         <v>24</v>
       </c>
-      <c r="I11" s="35"/>
-      <c r="J11" s="35"/>
-      <c r="K11" s="36"/>
-    </row>
-    <row r="12" spans="2:11">
-      <c r="B12" s="42"/>
+      <c r="I11" s="47"/>
+      <c r="J11" s="47"/>
+      <c r="K11" s="48"/>
+    </row>
+    <row r="12" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B12" s="34"/>
       <c r="C12" s="5">
         <v>40004</v>
       </c>
@@ -1384,15 +1381,15 @@
       <c r="G12" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H12" s="35" t="s">
+      <c r="H12" s="47" t="s">
         <v>24</v>
       </c>
-      <c r="I12" s="35"/>
-      <c r="J12" s="35"/>
-      <c r="K12" s="36"/>
-    </row>
-    <row r="13" spans="2:11">
-      <c r="B13" s="42"/>
+      <c r="I12" s="47"/>
+      <c r="J12" s="47"/>
+      <c r="K12" s="48"/>
+    </row>
+    <row r="13" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B13" s="34"/>
       <c r="C13" s="5">
         <v>40005</v>
       </c>
@@ -1421,8 +1418,8 @@
         <v>15</v>
       </c>
     </row>
-    <row r="14" spans="2:11">
-      <c r="B14" s="42"/>
+    <row r="14" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B14" s="34"/>
       <c r="C14" s="5">
         <v>40006</v>
       </c>
@@ -1438,15 +1435,15 @@
       <c r="G14" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H14" s="35" t="s">
+      <c r="H14" s="47" t="s">
         <v>46</v>
       </c>
-      <c r="I14" s="35"/>
-      <c r="J14" s="35"/>
-      <c r="K14" s="36"/>
-    </row>
-    <row r="15" spans="2:11">
-      <c r="B15" s="42"/>
+      <c r="I14" s="47"/>
+      <c r="J14" s="47"/>
+      <c r="K14" s="48"/>
+    </row>
+    <row r="15" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B15" s="34"/>
       <c r="C15" s="5">
         <v>40007</v>
       </c>
@@ -1462,15 +1459,15 @@
       <c r="G15" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H15" s="35" t="s">
+      <c r="H15" s="47" t="s">
         <v>46</v>
       </c>
-      <c r="I15" s="35"/>
-      <c r="J15" s="35"/>
-      <c r="K15" s="36"/>
-    </row>
-    <row r="16" spans="2:11">
-      <c r="B16" s="42"/>
+      <c r="I15" s="47"/>
+      <c r="J15" s="47"/>
+      <c r="K15" s="48"/>
+    </row>
+    <row r="16" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B16" s="34"/>
       <c r="C16" s="5">
         <v>40008</v>
       </c>
@@ -1499,8 +1496,8 @@
         <v>80</v>
       </c>
     </row>
-    <row r="17" spans="2:11">
-      <c r="B17" s="42"/>
+    <row r="17" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B17" s="34"/>
       <c r="C17" s="5">
         <v>40009</v>
       </c>
@@ -1529,8 +1526,8 @@
         <v>80</v>
       </c>
     </row>
-    <row r="18" spans="2:11">
-      <c r="B18" s="42"/>
+    <row r="18" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B18" s="34"/>
       <c r="C18" s="5">
         <v>40010</v>
       </c>
@@ -1559,8 +1556,8 @@
         <v>80</v>
       </c>
     </row>
-    <row r="19" spans="2:11" ht="15.75" customHeight="1">
-      <c r="B19" s="42"/>
+    <row r="19" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B19" s="34"/>
       <c r="C19" s="5">
         <v>40011</v>
       </c>
@@ -1576,15 +1573,15 @@
       <c r="G19" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H19" s="35" t="s">
+      <c r="H19" s="47" t="s">
         <v>42</v>
       </c>
-      <c r="I19" s="35"/>
-      <c r="J19" s="35"/>
-      <c r="K19" s="36"/>
-    </row>
-    <row r="20" spans="2:11" ht="15.75" customHeight="1">
-      <c r="B20" s="42"/>
+      <c r="I19" s="47"/>
+      <c r="J19" s="47"/>
+      <c r="K19" s="48"/>
+    </row>
+    <row r="20" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B20" s="34"/>
       <c r="C20" s="5">
         <v>40012</v>
       </c>
@@ -1600,15 +1597,15 @@
       <c r="G20" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="H20" s="45" t="s">
+      <c r="H20" s="36" t="s">
         <v>85</v>
       </c>
-      <c r="I20" s="46"/>
-      <c r="J20" s="46"/>
-      <c r="K20" s="47"/>
-    </row>
-    <row r="21" spans="2:11">
-      <c r="B21" s="42"/>
+      <c r="I20" s="37"/>
+      <c r="J20" s="37"/>
+      <c r="K20" s="38"/>
+    </row>
+    <row r="21" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B21" s="34"/>
       <c r="C21" s="5">
         <v>40013</v>
       </c>
@@ -1624,15 +1621,15 @@
       <c r="G21" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="H21" s="45" t="s">
+      <c r="H21" s="36" t="s">
         <v>87</v>
       </c>
-      <c r="I21" s="46"/>
-      <c r="J21" s="46"/>
-      <c r="K21" s="47"/>
-    </row>
-    <row r="22" spans="2:11">
-      <c r="B22" s="42"/>
+      <c r="I21" s="37"/>
+      <c r="J21" s="37"/>
+      <c r="K21" s="38"/>
+    </row>
+    <row r="22" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B22" s="34"/>
       <c r="C22" s="5">
         <v>40014</v>
       </c>
@@ -1648,15 +1645,15 @@
       <c r="G22" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="H22" s="45" t="s">
+      <c r="H22" s="36" t="s">
         <v>86</v>
       </c>
-      <c r="I22" s="46"/>
-      <c r="J22" s="46"/>
-      <c r="K22" s="47"/>
-    </row>
-    <row r="23" spans="2:11">
-      <c r="B23" s="42"/>
+      <c r="I22" s="37"/>
+      <c r="J22" s="37"/>
+      <c r="K22" s="38"/>
+    </row>
+    <row r="23" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B23" s="34"/>
       <c r="C23" s="5">
         <v>40015</v>
       </c>
@@ -1672,15 +1669,15 @@
       <c r="G23" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H23" s="35" t="s">
+      <c r="H23" s="47" t="s">
         <v>46</v>
       </c>
-      <c r="I23" s="35"/>
-      <c r="J23" s="35"/>
-      <c r="K23" s="36"/>
-    </row>
-    <row r="24" spans="2:11" ht="18" customHeight="1">
-      <c r="B24" s="42"/>
+      <c r="I23" s="47"/>
+      <c r="J23" s="47"/>
+      <c r="K23" s="48"/>
+    </row>
+    <row r="24" spans="2:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B24" s="34"/>
       <c r="C24" s="5">
         <v>40016</v>
       </c>
@@ -1696,15 +1693,15 @@
       <c r="G24" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H24" s="35" t="s">
+      <c r="H24" s="47" t="s">
         <v>42</v>
       </c>
-      <c r="I24" s="35"/>
-      <c r="J24" s="35"/>
-      <c r="K24" s="36"/>
-    </row>
-    <row r="25" spans="2:11" ht="18" customHeight="1">
-      <c r="B25" s="42"/>
+      <c r="I24" s="47"/>
+      <c r="J24" s="47"/>
+      <c r="K24" s="48"/>
+    </row>
+    <row r="25" spans="2:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B25" s="34"/>
       <c r="C25" s="5">
         <v>40017</v>
       </c>
@@ -1720,15 +1717,15 @@
       <c r="G25" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H25" s="35" t="s">
+      <c r="H25" s="47" t="s">
         <v>42</v>
       </c>
-      <c r="I25" s="35"/>
-      <c r="J25" s="35"/>
-      <c r="K25" s="36"/>
-    </row>
-    <row r="26" spans="2:11" ht="18" customHeight="1">
-      <c r="B26" s="42"/>
+      <c r="I25" s="47"/>
+      <c r="J25" s="47"/>
+      <c r="K25" s="48"/>
+    </row>
+    <row r="26" spans="2:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B26" s="34"/>
       <c r="C26" s="5">
         <v>40018</v>
       </c>
@@ -1744,15 +1741,15 @@
       <c r="G26" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H26" s="35" t="s">
+      <c r="H26" s="47" t="s">
         <v>42</v>
       </c>
-      <c r="I26" s="35"/>
-      <c r="J26" s="35"/>
-      <c r="K26" s="36"/>
-    </row>
-    <row r="27" spans="2:11" ht="18" customHeight="1">
-      <c r="B27" s="42"/>
+      <c r="I26" s="47"/>
+      <c r="J26" s="47"/>
+      <c r="K26" s="48"/>
+    </row>
+    <row r="27" spans="2:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B27" s="34"/>
       <c r="C27" s="5">
         <v>40019</v>
       </c>
@@ -1768,15 +1765,15 @@
       <c r="G27" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H27" s="35" t="s">
+      <c r="H27" s="47" t="s">
         <v>42</v>
       </c>
-      <c r="I27" s="35"/>
-      <c r="J27" s="35"/>
-      <c r="K27" s="36"/>
-    </row>
-    <row r="28" spans="2:11" ht="18" customHeight="1">
-      <c r="B28" s="42"/>
+      <c r="I27" s="47"/>
+      <c r="J27" s="47"/>
+      <c r="K27" s="48"/>
+    </row>
+    <row r="28" spans="2:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B28" s="34"/>
       <c r="C28" s="5">
         <v>40020</v>
       </c>
@@ -1789,18 +1786,18 @@
       <c r="F28" s="8" t="s">
         <v>79</v>
       </c>
-      <c r="G28" s="25" t="s">
+      <c r="G28" s="6" t="s">
         <v>80</v>
       </c>
-      <c r="H28" s="45" t="s">
+      <c r="H28" s="36" t="s">
         <v>88</v>
       </c>
-      <c r="I28" s="46"/>
-      <c r="J28" s="46"/>
-      <c r="K28" s="47"/>
-    </row>
-    <row r="29" spans="2:11" ht="18" customHeight="1" thickBot="1">
-      <c r="B29" s="43"/>
+      <c r="I28" s="37"/>
+      <c r="J28" s="37"/>
+      <c r="K28" s="38"/>
+    </row>
+    <row r="29" spans="2:11" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B29" s="35"/>
       <c r="C29" s="22">
         <v>40021</v>
       </c>
@@ -1813,18 +1810,18 @@
       <c r="F29" s="23" t="s">
         <v>84</v>
       </c>
-      <c r="G29" s="26" t="s">
+      <c r="G29" s="53" t="s">
         <v>81</v>
       </c>
-      <c r="H29" s="48" t="s">
+      <c r="H29" s="39" t="s">
         <v>89</v>
       </c>
-      <c r="I29" s="49"/>
-      <c r="J29" s="49"/>
-      <c r="K29" s="50"/>
-    </row>
-    <row r="30" spans="2:11">
-      <c r="B30" s="29" t="s">
+      <c r="I29" s="40"/>
+      <c r="J29" s="40"/>
+      <c r="K29" s="41"/>
+    </row>
+    <row r="30" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B30" s="30" t="s">
         <v>47</v>
       </c>
       <c r="C30" s="16">
@@ -1847,8 +1844,8 @@
       <c r="J30" s="17"/>
       <c r="K30" s="18"/>
     </row>
-    <row r="31" spans="2:11" ht="15.75" thickBot="1">
-      <c r="B31" s="30"/>
+    <row r="31" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B31" s="32"/>
       <c r="C31" s="11">
         <v>40002</v>
       </c>
@@ -1864,88 +1861,76 @@
       <c r="G31" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="H31" s="27" t="s">
+      <c r="H31" s="49" t="s">
         <v>42</v>
       </c>
-      <c r="I31" s="27"/>
-      <c r="J31" s="27"/>
-      <c r="K31" s="28"/>
-    </row>
-    <row r="33" spans="2:6">
+      <c r="I31" s="49"/>
+      <c r="J31" s="49"/>
+      <c r="K31" s="50"/>
+    </row>
+    <row r="33" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B33" s="1" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="34" spans="2:6">
-      <c r="B34" s="52" t="s">
+    <row r="34" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B34" s="27" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="35" spans="2:6">
-      <c r="B35" s="53" t="s">
+    <row r="35" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B35" s="28" t="s">
         <v>92</v>
       </c>
-      <c r="C35" s="53"/>
-      <c r="D35" s="53"/>
-      <c r="E35" s="54"/>
-      <c r="F35" s="53"/>
-    </row>
-    <row r="36" spans="2:6">
-      <c r="B36" s="53"/>
-      <c r="C36" s="53"/>
-      <c r="D36" s="53"/>
-      <c r="E36" s="54"/>
-      <c r="F36" s="53"/>
-    </row>
-    <row r="37" spans="2:6">
-      <c r="B37" s="53"/>
-      <c r="C37" s="53"/>
-      <c r="D37" s="53"/>
-      <c r="E37" s="54"/>
-      <c r="F37" s="53"/>
-    </row>
-    <row r="38" spans="2:6">
-      <c r="B38" s="53"/>
-      <c r="C38" s="53"/>
-      <c r="D38" s="53"/>
-      <c r="E38" s="54"/>
-      <c r="F38" s="53"/>
-    </row>
-    <row r="39" spans="2:6">
-      <c r="B39" s="53"/>
-      <c r="C39" s="53"/>
-      <c r="D39" s="53"/>
-      <c r="E39" s="54"/>
-      <c r="F39" s="53"/>
-    </row>
-    <row r="40" spans="2:6">
-      <c r="B40" s="53"/>
-      <c r="C40" s="53"/>
-      <c r="D40" s="53"/>
-      <c r="E40" s="54"/>
-      <c r="F40" s="53"/>
-    </row>
-    <row r="41" spans="2:6">
-      <c r="B41" s="53"/>
-      <c r="C41" s="53"/>
-      <c r="D41" s="53"/>
-      <c r="E41" s="54"/>
-      <c r="F41" s="53"/>
+      <c r="C35" s="28"/>
+      <c r="D35" s="28"/>
+      <c r="E35" s="29"/>
+      <c r="F35" s="28"/>
+    </row>
+    <row r="36" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B36" s="28"/>
+      <c r="C36" s="28"/>
+      <c r="D36" s="28"/>
+      <c r="E36" s="29"/>
+      <c r="F36" s="28"/>
+    </row>
+    <row r="37" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B37" s="28"/>
+      <c r="C37" s="28"/>
+      <c r="D37" s="28"/>
+      <c r="E37" s="29"/>
+      <c r="F37" s="28"/>
+    </row>
+    <row r="38" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B38" s="28"/>
+      <c r="C38" s="28"/>
+      <c r="D38" s="28"/>
+      <c r="E38" s="29"/>
+      <c r="F38" s="28"/>
+    </row>
+    <row r="39" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B39" s="28"/>
+      <c r="C39" s="28"/>
+      <c r="D39" s="28"/>
+      <c r="E39" s="29"/>
+      <c r="F39" s="28"/>
+    </row>
+    <row r="40" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B40" s="28"/>
+      <c r="C40" s="28"/>
+      <c r="D40" s="28"/>
+      <c r="E40" s="29"/>
+      <c r="F40" s="28"/>
+    </row>
+    <row r="41" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B41" s="28"/>
+      <c r="C41" s="28"/>
+      <c r="D41" s="28"/>
+      <c r="E41" s="29"/>
+      <c r="F41" s="28"/>
     </row>
   </sheetData>
   <mergeCells count="28">
-    <mergeCell ref="B4:B8"/>
-    <mergeCell ref="B9:B29"/>
-    <mergeCell ref="H20:K20"/>
-    <mergeCell ref="H22:K22"/>
-    <mergeCell ref="H21:K21"/>
-    <mergeCell ref="H28:K28"/>
-    <mergeCell ref="H29:K29"/>
-    <mergeCell ref="H2:K2"/>
-    <mergeCell ref="G2:G3"/>
-    <mergeCell ref="H6:K6"/>
-    <mergeCell ref="H7:K7"/>
-    <mergeCell ref="H11:K11"/>
     <mergeCell ref="H31:K31"/>
     <mergeCell ref="B30:B31"/>
     <mergeCell ref="F2:F3"/>
@@ -1962,35 +1947,43 @@
     <mergeCell ref="H23:K23"/>
     <mergeCell ref="H15:K15"/>
     <mergeCell ref="H14:K14"/>
+    <mergeCell ref="H2:K2"/>
+    <mergeCell ref="G2:G3"/>
+    <mergeCell ref="H6:K6"/>
+    <mergeCell ref="H7:K7"/>
+    <mergeCell ref="H11:K11"/>
+    <mergeCell ref="B4:B8"/>
+    <mergeCell ref="B9:B29"/>
+    <mergeCell ref="H20:K20"/>
+    <mergeCell ref="H22:K22"/>
+    <mergeCell ref="H21:K21"/>
+    <mergeCell ref="H28:K28"/>
+    <mergeCell ref="H29:K29"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
-  <oleObjects>
-    <oleObject progId="Pacestar.Diagram" shapeId="1025" r:id="rId3"/>
-  </oleObjects>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Informes/TP Anual 1/3- Diseño/Sensores y Actuadores.xlsx
+++ b/Informes/TP Anual 1/3- Diseño/Sensores y Actuadores.xlsx
@@ -33,18 +33,6 @@
     <t>Valores</t>
   </si>
   <si>
-    <t>LL (Low-Low)</t>
-  </si>
-  <si>
-    <t>L(Low)</t>
-  </si>
-  <si>
-    <t>H(High)</t>
-  </si>
-  <si>
-    <t>HH(High-High)</t>
-  </si>
-  <si>
     <t>Unidad Medida</t>
   </si>
   <si>
@@ -267,9 +255,6 @@
     <t>SSA0001</t>
   </si>
   <si>
-    <t>SSA0002</t>
-  </si>
-  <si>
     <t>Voltaje Generado</t>
   </si>
   <si>
@@ -295,6 +280,21 @@
   </si>
   <si>
     <t>* Los valores de la turbina están colocados en base a una turbina FRANCIS-Eje Vertical</t>
+  </si>
+  <si>
+    <t>ASA0002</t>
+  </si>
+  <si>
+    <t>LL</t>
+  </si>
+  <si>
+    <t>L</t>
+  </si>
+  <si>
+    <t>H</t>
+  </si>
+  <si>
+    <t>HH</t>
   </si>
 </sst>
 </file>
@@ -699,15 +699,51 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -733,42 +769,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1075,7 +1075,7 @@
   <dimension ref="B1:K41"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12:K12"/>
+      <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1086,76 +1086,77 @@
     <col min="5" max="5" width="10.7109375" style="2" customWidth="1"/>
     <col min="6" max="6" width="46.85546875" style="1" customWidth="1"/>
     <col min="7" max="7" width="9.28515625" style="2" customWidth="1"/>
-    <col min="8" max="10" width="12.7109375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="13.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="3" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="5.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="3.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="12" max="16384" width="11.42578125" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B2" s="51" t="s">
+      <c r="B2" s="37" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="42" t="s">
-        <v>76</v>
-      </c>
-      <c r="D2" s="42" t="s">
+      <c r="C2" s="35" t="s">
+        <v>72</v>
+      </c>
+      <c r="D2" s="35" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="42" t="s">
+      <c r="E2" s="35" t="s">
         <v>2</v>
       </c>
-      <c r="F2" s="42" t="s">
+      <c r="F2" s="35" t="s">
         <v>1</v>
       </c>
-      <c r="G2" s="42" t="s">
-        <v>9</v>
-      </c>
-      <c r="H2" s="42" t="s">
+      <c r="G2" s="35" t="s">
+        <v>5</v>
+      </c>
+      <c r="H2" s="35" t="s">
         <v>4</v>
       </c>
-      <c r="I2" s="42"/>
-      <c r="J2" s="42"/>
-      <c r="K2" s="43"/>
+      <c r="I2" s="35"/>
+      <c r="J2" s="35"/>
+      <c r="K2" s="41"/>
     </row>
     <row r="3" spans="2:11" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="52"/>
-      <c r="C3" s="44"/>
-      <c r="D3" s="44"/>
-      <c r="E3" s="44"/>
-      <c r="F3" s="44"/>
-      <c r="G3" s="44"/>
+      <c r="B3" s="38"/>
+      <c r="C3" s="36"/>
+      <c r="D3" s="36"/>
+      <c r="E3" s="36"/>
+      <c r="F3" s="36"/>
+      <c r="G3" s="36"/>
       <c r="H3" s="14" t="s">
-        <v>5</v>
+        <v>89</v>
       </c>
       <c r="I3" s="14" t="s">
-        <v>6</v>
+        <v>90</v>
       </c>
       <c r="J3" s="14" t="s">
-        <v>7</v>
+        <v>91</v>
       </c>
       <c r="K3" s="15" t="s">
-        <v>8</v>
+        <v>92</v>
       </c>
     </row>
     <row r="4" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="30" t="s">
-        <v>20</v>
+      <c r="B4" s="33" t="s">
+        <v>16</v>
       </c>
       <c r="C4" s="16">
         <v>40001</v>
       </c>
       <c r="D4" s="16" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="E4" s="16" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="F4" s="17" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="G4" s="16" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="H4" s="16">
         <v>10</v>
@@ -1171,21 +1172,21 @@
       </c>
     </row>
     <row r="5" spans="2:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="B5" s="31"/>
+      <c r="B5" s="44"/>
       <c r="C5" s="3">
         <v>40002</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="H5" s="3">
         <v>-4</v>
@@ -1201,69 +1202,69 @@
       </c>
     </row>
     <row r="6" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B6" s="31"/>
+      <c r="B6" s="44"/>
       <c r="C6" s="3">
         <v>40003</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="H6" s="45" t="s">
-        <v>24</v>
-      </c>
-      <c r="I6" s="45"/>
-      <c r="J6" s="45"/>
-      <c r="K6" s="46"/>
+        <v>9</v>
+      </c>
+      <c r="H6" s="42" t="s">
+        <v>20</v>
+      </c>
+      <c r="I6" s="42"/>
+      <c r="J6" s="42"/>
+      <c r="K6" s="43"/>
     </row>
     <row r="7" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B7" s="31"/>
+      <c r="B7" s="44"/>
       <c r="C7" s="3">
         <v>40004</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="H7" s="45" t="s">
-        <v>24</v>
-      </c>
-      <c r="I7" s="45"/>
-      <c r="J7" s="45"/>
-      <c r="K7" s="46"/>
+        <v>9</v>
+      </c>
+      <c r="H7" s="42" t="s">
+        <v>20</v>
+      </c>
+      <c r="I7" s="42"/>
+      <c r="J7" s="42"/>
+      <c r="K7" s="43"/>
     </row>
     <row r="8" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="32"/>
+      <c r="B8" s="34"/>
       <c r="C8" s="11">
         <v>40005</v>
       </c>
       <c r="D8" s="11" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="E8" s="11" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="F8" s="12" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="G8" s="11" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="H8" s="13">
         <v>3</v>
@@ -1279,23 +1280,23 @@
       </c>
     </row>
     <row r="9" spans="2:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="33" t="s">
-        <v>45</v>
+      <c r="B9" s="45" t="s">
+        <v>41</v>
       </c>
       <c r="C9" s="19">
         <v>40001</v>
       </c>
       <c r="D9" s="19" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="E9" s="20" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="F9" s="21" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="G9" s="19" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="H9" s="19">
         <v>3</v>
@@ -1311,21 +1312,21 @@
       </c>
     </row>
     <row r="10" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B10" s="34"/>
+      <c r="B10" s="46"/>
       <c r="C10" s="5">
         <v>40002</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="E10" s="6" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="F10" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="G10" s="5" t="s">
         <v>22</v>
-      </c>
-      <c r="G10" s="5" t="s">
-        <v>26</v>
       </c>
       <c r="H10" s="5">
         <v>3</v>
@@ -1341,69 +1342,69 @@
       </c>
     </row>
     <row r="11" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B11" s="34"/>
+      <c r="B11" s="46"/>
       <c r="C11" s="5">
         <v>40003</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="G11" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="H11" s="47" t="s">
-        <v>24</v>
-      </c>
-      <c r="I11" s="47"/>
-      <c r="J11" s="47"/>
-      <c r="K11" s="48"/>
+        <v>9</v>
+      </c>
+      <c r="H11" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="I11" s="39"/>
+      <c r="J11" s="39"/>
+      <c r="K11" s="40"/>
     </row>
     <row r="12" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B12" s="34"/>
+      <c r="B12" s="46"/>
       <c r="C12" s="5">
         <v>40004</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="F12" s="8" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="G12" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="H12" s="47" t="s">
-        <v>24</v>
-      </c>
-      <c r="I12" s="47"/>
-      <c r="J12" s="47"/>
-      <c r="K12" s="48"/>
+        <v>9</v>
+      </c>
+      <c r="H12" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="I12" s="39"/>
+      <c r="J12" s="39"/>
+      <c r="K12" s="40"/>
     </row>
     <row r="13" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B13" s="34"/>
+      <c r="B13" s="46"/>
       <c r="C13" s="5">
         <v>40005</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="F13" s="8" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="G13" s="5" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="H13" s="5">
         <v>3</v>
@@ -1419,69 +1420,69 @@
       </c>
     </row>
     <row r="14" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B14" s="34"/>
+      <c r="B14" s="46"/>
       <c r="C14" s="5">
         <v>40006</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="F14" s="8" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="G14" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="H14" s="47" t="s">
-        <v>46</v>
-      </c>
-      <c r="I14" s="47"/>
-      <c r="J14" s="47"/>
-      <c r="K14" s="48"/>
+        <v>9</v>
+      </c>
+      <c r="H14" s="39" t="s">
+        <v>42</v>
+      </c>
+      <c r="I14" s="39"/>
+      <c r="J14" s="39"/>
+      <c r="K14" s="40"/>
     </row>
     <row r="15" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B15" s="34"/>
+      <c r="B15" s="46"/>
       <c r="C15" s="5">
         <v>40007</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="F15" s="8" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="G15" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="H15" s="47" t="s">
-        <v>46</v>
-      </c>
-      <c r="I15" s="47"/>
-      <c r="J15" s="47"/>
-      <c r="K15" s="48"/>
+        <v>9</v>
+      </c>
+      <c r="H15" s="39" t="s">
+        <v>42</v>
+      </c>
+      <c r="I15" s="39"/>
+      <c r="J15" s="39"/>
+      <c r="K15" s="40"/>
     </row>
     <row r="16" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B16" s="34"/>
+      <c r="B16" s="46"/>
       <c r="C16" s="5">
         <v>40008</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="E16" s="5" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="F16" s="8" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="G16" s="5" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="H16" s="5">
         <v>0</v>
@@ -1497,21 +1498,21 @@
       </c>
     </row>
     <row r="17" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B17" s="34"/>
+      <c r="B17" s="46"/>
       <c r="C17" s="5">
         <v>40009</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="E17" s="5" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="F17" s="8" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="G17" s="5" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="H17" s="5">
         <v>0</v>
@@ -1527,21 +1528,21 @@
       </c>
     </row>
     <row r="18" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B18" s="34"/>
+      <c r="B18" s="46"/>
       <c r="C18" s="5">
         <v>40010</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="E18" s="5" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="F18" s="8" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="G18" s="5" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="H18" s="5">
         <v>0</v>
@@ -1557,287 +1558,287 @@
       </c>
     </row>
     <row r="19" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="34"/>
+      <c r="B19" s="46"/>
       <c r="C19" s="5">
         <v>40011</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="E19" s="5" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="F19" s="8" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="G19" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="H19" s="47" t="s">
-        <v>42</v>
-      </c>
-      <c r="I19" s="47"/>
-      <c r="J19" s="47"/>
-      <c r="K19" s="48"/>
+        <v>9</v>
+      </c>
+      <c r="H19" s="39" t="s">
+        <v>38</v>
+      </c>
+      <c r="I19" s="39"/>
+      <c r="J19" s="39"/>
+      <c r="K19" s="40"/>
     </row>
     <row r="20" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="34"/>
+      <c r="B20" s="46"/>
       <c r="C20" s="5">
         <v>40012</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="E20" s="5" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="F20" s="8" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="G20" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="H20" s="36" t="s">
-        <v>85</v>
-      </c>
-      <c r="I20" s="37"/>
-      <c r="J20" s="37"/>
-      <c r="K20" s="38"/>
+        <v>74</v>
+      </c>
+      <c r="H20" s="48" t="s">
+        <v>80</v>
+      </c>
+      <c r="I20" s="49"/>
+      <c r="J20" s="49"/>
+      <c r="K20" s="50"/>
     </row>
     <row r="21" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B21" s="34"/>
+      <c r="B21" s="46"/>
       <c r="C21" s="5">
         <v>40013</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="E21" s="5" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="F21" s="8" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="G21" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="H21" s="36" t="s">
-        <v>87</v>
-      </c>
-      <c r="I21" s="37"/>
-      <c r="J21" s="37"/>
-      <c r="K21" s="38"/>
+        <v>13</v>
+      </c>
+      <c r="H21" s="48" t="s">
+        <v>82</v>
+      </c>
+      <c r="I21" s="49"/>
+      <c r="J21" s="49"/>
+      <c r="K21" s="50"/>
     </row>
     <row r="22" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B22" s="34"/>
+      <c r="B22" s="46"/>
       <c r="C22" s="5">
         <v>40014</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="E22" s="5" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="F22" s="8" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="G22" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="H22" s="36" t="s">
-        <v>86</v>
-      </c>
-      <c r="I22" s="37"/>
-      <c r="J22" s="37"/>
-      <c r="K22" s="38"/>
+        <v>32</v>
+      </c>
+      <c r="H22" s="48" t="s">
+        <v>81</v>
+      </c>
+      <c r="I22" s="49"/>
+      <c r="J22" s="49"/>
+      <c r="K22" s="50"/>
     </row>
     <row r="23" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B23" s="34"/>
+      <c r="B23" s="46"/>
       <c r="C23" s="5">
         <v>40015</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="E23" s="5" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="F23" s="8" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="G23" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="H23" s="47" t="s">
-        <v>46</v>
-      </c>
-      <c r="I23" s="47"/>
-      <c r="J23" s="47"/>
-      <c r="K23" s="48"/>
+        <v>9</v>
+      </c>
+      <c r="H23" s="39" t="s">
+        <v>42</v>
+      </c>
+      <c r="I23" s="39"/>
+      <c r="J23" s="39"/>
+      <c r="K23" s="40"/>
     </row>
     <row r="24" spans="2:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="34"/>
+      <c r="B24" s="46"/>
       <c r="C24" s="5">
         <v>40016</v>
       </c>
       <c r="D24" s="5" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="E24" s="5" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="F24" s="8" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="G24" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="H24" s="47" t="s">
-        <v>42</v>
-      </c>
-      <c r="I24" s="47"/>
-      <c r="J24" s="47"/>
-      <c r="K24" s="48"/>
+        <v>9</v>
+      </c>
+      <c r="H24" s="39" t="s">
+        <v>38</v>
+      </c>
+      <c r="I24" s="39"/>
+      <c r="J24" s="39"/>
+      <c r="K24" s="40"/>
     </row>
     <row r="25" spans="2:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="34"/>
+      <c r="B25" s="46"/>
       <c r="C25" s="5">
         <v>40017</v>
       </c>
       <c r="D25" s="5" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="E25" s="5" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="F25" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="G25" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="H25" s="39" t="s">
         <v>38</v>
       </c>
-      <c r="G25" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="H25" s="47" t="s">
-        <v>42</v>
-      </c>
-      <c r="I25" s="47"/>
-      <c r="J25" s="47"/>
-      <c r="K25" s="48"/>
+      <c r="I25" s="39"/>
+      <c r="J25" s="39"/>
+      <c r="K25" s="40"/>
     </row>
     <row r="26" spans="2:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B26" s="34"/>
+      <c r="B26" s="46"/>
       <c r="C26" s="5">
         <v>40018</v>
       </c>
       <c r="D26" s="5" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="E26" s="5" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="F26" s="8" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="G26" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="H26" s="47" t="s">
-        <v>42</v>
-      </c>
-      <c r="I26" s="47"/>
-      <c r="J26" s="47"/>
-      <c r="K26" s="48"/>
+        <v>9</v>
+      </c>
+      <c r="H26" s="39" t="s">
+        <v>38</v>
+      </c>
+      <c r="I26" s="39"/>
+      <c r="J26" s="39"/>
+      <c r="K26" s="40"/>
     </row>
     <row r="27" spans="2:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="34"/>
+      <c r="B27" s="46"/>
       <c r="C27" s="5">
         <v>40019</v>
       </c>
       <c r="D27" s="5" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="E27" s="5" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="F27" s="8" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="G27" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="H27" s="47" t="s">
-        <v>42</v>
-      </c>
-      <c r="I27" s="47"/>
-      <c r="J27" s="47"/>
-      <c r="K27" s="48"/>
+        <v>9</v>
+      </c>
+      <c r="H27" s="39" t="s">
+        <v>38</v>
+      </c>
+      <c r="I27" s="39"/>
+      <c r="J27" s="39"/>
+      <c r="K27" s="40"/>
     </row>
     <row r="28" spans="2:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B28" s="34"/>
+      <c r="B28" s="46"/>
       <c r="C28" s="5">
         <v>40020</v>
       </c>
       <c r="D28" s="5" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="E28" s="5" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="F28" s="8" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="G28" s="6" t="s">
-        <v>80</v>
-      </c>
-      <c r="H28" s="36" t="s">
-        <v>88</v>
-      </c>
-      <c r="I28" s="37"/>
-      <c r="J28" s="37"/>
-      <c r="K28" s="38"/>
+        <v>76</v>
+      </c>
+      <c r="H28" s="48" t="s">
+        <v>83</v>
+      </c>
+      <c r="I28" s="49"/>
+      <c r="J28" s="49"/>
+      <c r="K28" s="50"/>
     </row>
     <row r="29" spans="2:11" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B29" s="35"/>
+      <c r="B29" s="47"/>
       <c r="C29" s="22">
         <v>40021</v>
       </c>
       <c r="D29" s="22" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="E29" s="22" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="F29" s="23" t="s">
+        <v>79</v>
+      </c>
+      <c r="G29" s="30" t="s">
+        <v>77</v>
+      </c>
+      <c r="H29" s="51" t="s">
         <v>84</v>
       </c>
-      <c r="G29" s="53" t="s">
-        <v>81</v>
-      </c>
-      <c r="H29" s="39" t="s">
-        <v>89</v>
-      </c>
-      <c r="I29" s="40"/>
-      <c r="J29" s="40"/>
-      <c r="K29" s="41"/>
+      <c r="I29" s="52"/>
+      <c r="J29" s="52"/>
+      <c r="K29" s="53"/>
     </row>
     <row r="30" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B30" s="30" t="s">
-        <v>47</v>
+      <c r="B30" s="33" t="s">
+        <v>43</v>
       </c>
       <c r="C30" s="16">
         <v>40001</v>
       </c>
       <c r="D30" s="16" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="E30" s="16" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="F30" s="17" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="G30" s="16" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="H30" s="17"/>
       <c r="I30" s="17"/>
@@ -1845,42 +1846,42 @@
       <c r="K30" s="18"/>
     </row>
     <row r="31" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B31" s="32"/>
+      <c r="B31" s="34"/>
       <c r="C31" s="11">
         <v>40002</v>
       </c>
       <c r="D31" s="11" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="E31" s="11" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="F31" s="12" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="G31" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="H31" s="49" t="s">
-        <v>42</v>
-      </c>
-      <c r="I31" s="49"/>
-      <c r="J31" s="49"/>
-      <c r="K31" s="50"/>
+        <v>9</v>
+      </c>
+      <c r="H31" s="31" t="s">
+        <v>38</v>
+      </c>
+      <c r="I31" s="31"/>
+      <c r="J31" s="31"/>
+      <c r="K31" s="32"/>
     </row>
     <row r="33" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B33" s="1" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
     </row>
     <row r="34" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B34" s="27" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
     </row>
     <row r="35" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B35" s="28" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="C35" s="28"/>
       <c r="D35" s="28"/>
@@ -1931,6 +1932,18 @@
     </row>
   </sheetData>
   <mergeCells count="28">
+    <mergeCell ref="B4:B8"/>
+    <mergeCell ref="B9:B29"/>
+    <mergeCell ref="H20:K20"/>
+    <mergeCell ref="H22:K22"/>
+    <mergeCell ref="H21:K21"/>
+    <mergeCell ref="H28:K28"/>
+    <mergeCell ref="H29:K29"/>
+    <mergeCell ref="H2:K2"/>
+    <mergeCell ref="G2:G3"/>
+    <mergeCell ref="H6:K6"/>
+    <mergeCell ref="H7:K7"/>
+    <mergeCell ref="H11:K11"/>
     <mergeCell ref="H31:K31"/>
     <mergeCell ref="B30:B31"/>
     <mergeCell ref="F2:F3"/>
@@ -1947,21 +1960,9 @@
     <mergeCell ref="H23:K23"/>
     <mergeCell ref="H15:K15"/>
     <mergeCell ref="H14:K14"/>
-    <mergeCell ref="H2:K2"/>
-    <mergeCell ref="G2:G3"/>
-    <mergeCell ref="H6:K6"/>
-    <mergeCell ref="H7:K7"/>
-    <mergeCell ref="H11:K11"/>
-    <mergeCell ref="B4:B8"/>
-    <mergeCell ref="B9:B29"/>
-    <mergeCell ref="H20:K20"/>
-    <mergeCell ref="H22:K22"/>
-    <mergeCell ref="H21:K21"/>
-    <mergeCell ref="H28:K28"/>
-    <mergeCell ref="H29:K29"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/Informes/TP Anual 1/3- Diseño/Sensores y Actuadores.xlsx
+++ b/Informes/TP Anual 1/3- Diseño/Sensores y Actuadores.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="120" windowWidth="27315" windowHeight="13095" activeTab="3"/>
+    <workbookView xWindow="240" yWindow="180" windowWidth="20730" windowHeight="11700" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -1452,33 +1452,6 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1492,9 +1465,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1509,9 +1479,6 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1545,12 +1512,6 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1588,15 +1549,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="37" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1608,15 +1560,6 @@
     <xf numFmtId="0" fontId="4" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1629,15 +1572,6 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1650,15 +1584,6 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1671,9 +1596,6 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="12" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="36" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1681,15 +1603,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="21" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="41" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="42" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="40" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1725,21 +1638,12 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="43" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="43" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="43" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1755,19 +1659,7 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="45" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="45" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="45" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="46" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1803,25 +1695,10 @@
     <xf numFmtId="0" fontId="2" fillId="5" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="48" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="48" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="49" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="49" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="55" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1890,6 +1767,153 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="61" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="40" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="41" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="42" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="36" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="37" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="64" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="43" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="43" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="48" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="48" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="45" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="45" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1899,34 +1923,10 @@
     <xf numFmtId="0" fontId="1" fillId="6" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="64" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2254,33 +2254,33 @@
   <sheetData>
     <row r="1" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="29" t="s">
+      <c r="B2" s="140" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="27" t="s">
+      <c r="C2" s="138" t="s">
         <v>69</v>
       </c>
-      <c r="D2" s="27" t="s">
+      <c r="D2" s="138" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="27" t="s">
+      <c r="E2" s="138" t="s">
         <v>2</v>
       </c>
-      <c r="F2" s="27" t="s">
+      <c r="F2" s="138" t="s">
         <v>1</v>
       </c>
-      <c r="G2" s="27" t="s">
+      <c r="G2" s="138" t="s">
         <v>4</v>
       </c>
       <c r="H2" s="15"/>
-      <c r="I2" s="53" t="s">
+      <c r="I2" s="145" t="s">
         <v>86</v>
       </c>
-      <c r="J2" s="53"/>
-      <c r="K2" s="53"/>
-      <c r="L2" s="54"/>
+      <c r="J2" s="145"/>
+      <c r="K2" s="145"/>
+      <c r="L2" s="146"/>
       <c r="M2" s="17"/>
-      <c r="N2" s="69" t="s">
+      <c r="N2" s="128" t="s">
         <v>94</v>
       </c>
       <c r="O2" s="1" t="s">
@@ -2288,35 +2288,35 @@
       </c>
     </row>
     <row r="3" spans="2:15" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="30"/>
-      <c r="C3" s="28"/>
-      <c r="D3" s="28"/>
-      <c r="E3" s="28"/>
-      <c r="F3" s="28"/>
-      <c r="G3" s="28"/>
-      <c r="H3" s="32" t="s">
+      <c r="B3" s="141"/>
+      <c r="C3" s="139"/>
+      <c r="D3" s="139"/>
+      <c r="E3" s="139"/>
+      <c r="F3" s="139"/>
+      <c r="G3" s="139"/>
+      <c r="H3" s="23" t="s">
         <v>84</v>
       </c>
-      <c r="I3" s="55" t="s">
+      <c r="I3" s="42" t="s">
         <v>80</v>
       </c>
-      <c r="J3" s="56" t="s">
+      <c r="J3" s="43" t="s">
         <v>81</v>
       </c>
-      <c r="K3" s="56" t="s">
+      <c r="K3" s="43" t="s">
         <v>82</v>
       </c>
-      <c r="L3" s="57" t="s">
+      <c r="L3" s="44" t="s">
         <v>83</v>
       </c>
-      <c r="M3" s="46" t="s">
+      <c r="M3" s="35" t="s">
         <v>85</v>
       </c>
-      <c r="N3" s="70"/>
+      <c r="N3" s="129"/>
       <c r="O3" s="2"/>
     </row>
     <row r="4" spans="2:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="22" t="s">
+      <c r="B4" s="136" t="s">
         <v>14</v>
       </c>
       <c r="C4" s="9">
@@ -2334,10 +2334,10 @@
       <c r="G4" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="H4" s="33">
+      <c r="H4" s="24">
         <v>0</v>
       </c>
-      <c r="I4" s="58">
+      <c r="I4" s="45">
         <v>10</v>
       </c>
       <c r="J4" s="9">
@@ -2346,18 +2346,18 @@
       <c r="K4" s="9">
         <v>55</v>
       </c>
-      <c r="L4" s="59">
+      <c r="L4" s="46">
         <v>70</v>
       </c>
-      <c r="M4" s="47">
+      <c r="M4" s="36">
         <v>100</v>
       </c>
-      <c r="N4" s="98" t="s">
+      <c r="N4" s="72" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="5" spans="2:15" ht="30" x14ac:dyDescent="0.25">
-      <c r="B5" s="23"/>
+      <c r="B5" s="150"/>
       <c r="C5" s="18">
         <v>40002</v>
       </c>
@@ -2373,10 +2373,10 @@
       <c r="G5" s="18" t="s">
         <v>87</v>
       </c>
-      <c r="H5" s="34">
+      <c r="H5" s="25">
         <v>0</v>
       </c>
-      <c r="I5" s="60">
+      <c r="I5" s="47">
         <v>10</v>
       </c>
       <c r="J5" s="18">
@@ -2385,84 +2385,84 @@
       <c r="K5" s="18">
         <v>30</v>
       </c>
-      <c r="L5" s="61">
+      <c r="L5" s="48">
         <v>40</v>
       </c>
-      <c r="M5" s="48">
+      <c r="M5" s="37">
         <v>5000</v>
       </c>
-      <c r="N5" s="102" t="s">
+      <c r="N5" s="73" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="6" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B6" s="23"/>
-      <c r="C6" s="85">
+      <c r="B6" s="150"/>
+      <c r="C6" s="63">
         <v>40003</v>
       </c>
-      <c r="D6" s="85" t="s">
+      <c r="D6" s="63" t="s">
         <v>66</v>
       </c>
-      <c r="E6" s="85" t="s">
+      <c r="E6" s="63" t="s">
         <v>8</v>
       </c>
-      <c r="F6" s="86" t="s">
+      <c r="F6" s="64" t="s">
         <v>6</v>
       </c>
-      <c r="G6" s="85" t="s">
+      <c r="G6" s="63" t="s">
         <v>7</v>
       </c>
-      <c r="H6" s="87" t="s">
+      <c r="H6" s="65" t="s">
         <v>95</v>
       </c>
-      <c r="I6" s="88" t="s">
+      <c r="I6" s="147" t="s">
         <v>88</v>
       </c>
-      <c r="J6" s="89"/>
-      <c r="K6" s="89"/>
-      <c r="L6" s="90"/>
-      <c r="M6" s="91" t="s">
+      <c r="J6" s="148"/>
+      <c r="K6" s="148"/>
+      <c r="L6" s="149"/>
+      <c r="M6" s="66" t="s">
         <v>102</v>
       </c>
-      <c r="N6" s="110" t="s">
+      <c r="N6" s="81" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="7" spans="2:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="23"/>
-      <c r="C7" s="85">
+      <c r="B7" s="150"/>
+      <c r="C7" s="63">
         <v>40004</v>
       </c>
-      <c r="D7" s="85" t="s">
+      <c r="D7" s="63" t="s">
         <v>65</v>
       </c>
-      <c r="E7" s="85" t="s">
+      <c r="E7" s="63" t="s">
         <v>8</v>
       </c>
-      <c r="F7" s="86" t="s">
+      <c r="F7" s="64" t="s">
         <v>13</v>
       </c>
-      <c r="G7" s="85" t="s">
+      <c r="G7" s="63" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="87" t="s">
+      <c r="H7" s="65" t="s">
         <v>95</v>
       </c>
-      <c r="I7" s="88" t="s">
+      <c r="I7" s="147" t="s">
         <v>88</v>
       </c>
-      <c r="J7" s="89"/>
-      <c r="K7" s="89"/>
-      <c r="L7" s="90"/>
-      <c r="M7" s="91" t="s">
+      <c r="J7" s="148"/>
+      <c r="K7" s="148"/>
+      <c r="L7" s="149"/>
+      <c r="M7" s="66" t="s">
         <v>102</v>
       </c>
-      <c r="N7" s="110" t="s">
+      <c r="N7" s="81" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="8" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="24"/>
+      <c r="B8" s="137"/>
       <c r="C8" s="14">
         <v>40005</v>
       </c>
@@ -2478,10 +2478,10 @@
       <c r="G8" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="H8" s="35">
+      <c r="H8" s="26">
         <v>0</v>
       </c>
-      <c r="I8" s="62">
+      <c r="I8" s="49">
         <v>3</v>
       </c>
       <c r="J8" s="14">
@@ -2490,59 +2490,59 @@
       <c r="K8" s="14">
         <v>12</v>
       </c>
-      <c r="L8" s="63">
+      <c r="L8" s="50">
         <v>15</v>
       </c>
-      <c r="M8" s="49">
+      <c r="M8" s="38">
         <v>30</v>
       </c>
-      <c r="N8" s="49" t="s">
+      <c r="N8" s="38" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="9" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="41" t="s">
+      <c r="B9" s="151" t="s">
         <v>38</v>
       </c>
-      <c r="C9" s="42">
+      <c r="C9" s="31">
         <v>40001</v>
       </c>
-      <c r="D9" s="42" t="s">
+      <c r="D9" s="31" t="s">
         <v>63</v>
       </c>
-      <c r="E9" s="43" t="s">
+      <c r="E9" s="32" t="s">
         <v>9</v>
       </c>
-      <c r="F9" s="44" t="s">
+      <c r="F9" s="33" t="s">
         <v>15</v>
       </c>
-      <c r="G9" s="42" t="s">
+      <c r="G9" s="31" t="s">
         <v>19</v>
       </c>
-      <c r="H9" s="45">
+      <c r="H9" s="34">
         <v>0</v>
       </c>
-      <c r="I9" s="64">
+      <c r="I9" s="51">
         <v>3</v>
       </c>
-      <c r="J9" s="42">
+      <c r="J9" s="31">
         <v>5</v>
       </c>
-      <c r="K9" s="42">
+      <c r="K9" s="31">
         <v>12</v>
       </c>
-      <c r="L9" s="65">
+      <c r="L9" s="52">
         <v>15</v>
       </c>
-      <c r="M9" s="50">
+      <c r="M9" s="39">
         <v>30</v>
       </c>
-      <c r="N9" s="103" t="s">
+      <c r="N9" s="74" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="10" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B10" s="25"/>
+      <c r="B10" s="152"/>
       <c r="C10" s="4">
         <v>40002</v>
       </c>
@@ -2561,7 +2561,7 @@
       <c r="H10" s="19">
         <v>0</v>
       </c>
-      <c r="I10" s="66">
+      <c r="I10" s="53">
         <v>3</v>
       </c>
       <c r="J10" s="16">
@@ -2570,84 +2570,84 @@
       <c r="K10" s="16">
         <v>12</v>
       </c>
-      <c r="L10" s="67">
+      <c r="L10" s="54">
         <v>15</v>
       </c>
       <c r="M10" s="21">
         <v>30</v>
       </c>
-      <c r="N10" s="104" t="s">
+      <c r="N10" s="75" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="11" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B11" s="25"/>
-      <c r="C11" s="71">
+      <c r="B11" s="152"/>
+      <c r="C11" s="55">
         <v>40003</v>
       </c>
-      <c r="D11" s="71" t="s">
+      <c r="D11" s="55" t="s">
         <v>61</v>
       </c>
-      <c r="E11" s="71" t="s">
+      <c r="E11" s="55" t="s">
         <v>8</v>
       </c>
-      <c r="F11" s="72" t="s">
+      <c r="F11" s="56" t="s">
         <v>17</v>
       </c>
-      <c r="G11" s="71" t="s">
+      <c r="G11" s="55" t="s">
         <v>7</v>
       </c>
-      <c r="H11" s="73" t="s">
+      <c r="H11" s="57" t="s">
         <v>95</v>
       </c>
-      <c r="I11" s="74" t="s">
+      <c r="I11" s="142" t="s">
         <v>88</v>
       </c>
-      <c r="J11" s="75"/>
-      <c r="K11" s="75"/>
-      <c r="L11" s="76"/>
-      <c r="M11" s="77" t="s">
+      <c r="J11" s="143"/>
+      <c r="K11" s="143"/>
+      <c r="L11" s="144"/>
+      <c r="M11" s="58" t="s">
         <v>102</v>
       </c>
-      <c r="N11" s="109" t="s">
+      <c r="N11" s="80" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="12" spans="2:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="25"/>
-      <c r="C12" s="71">
+      <c r="B12" s="152"/>
+      <c r="C12" s="55">
         <v>40004</v>
       </c>
-      <c r="D12" s="71" t="s">
+      <c r="D12" s="55" t="s">
         <v>60</v>
       </c>
-      <c r="E12" s="71" t="s">
+      <c r="E12" s="55" t="s">
         <v>8</v>
       </c>
-      <c r="F12" s="72" t="s">
+      <c r="F12" s="56" t="s">
         <v>18</v>
       </c>
-      <c r="G12" s="71" t="s">
+      <c r="G12" s="55" t="s">
         <v>7</v>
       </c>
-      <c r="H12" s="73" t="s">
+      <c r="H12" s="57" t="s">
         <v>95</v>
       </c>
-      <c r="I12" s="74" t="s">
+      <c r="I12" s="142" t="s">
         <v>88</v>
       </c>
-      <c r="J12" s="75"/>
-      <c r="K12" s="75"/>
-      <c r="L12" s="76"/>
-      <c r="M12" s="77" t="s">
+      <c r="J12" s="143"/>
+      <c r="K12" s="143"/>
+      <c r="L12" s="144"/>
+      <c r="M12" s="58" t="s">
         <v>102</v>
       </c>
-      <c r="N12" s="109" t="s">
+      <c r="N12" s="80" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="13" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B13" s="25"/>
+      <c r="B13" s="152"/>
       <c r="C13" s="5">
         <v>40005</v>
       </c>
@@ -2663,10 +2663,10 @@
       <c r="G13" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="H13" s="31">
+      <c r="H13" s="22">
         <v>0</v>
       </c>
-      <c r="I13" s="92">
+      <c r="I13" s="67">
         <v>3</v>
       </c>
       <c r="J13" s="5">
@@ -2675,84 +2675,84 @@
       <c r="K13" s="5">
         <v>12</v>
       </c>
-      <c r="L13" s="93">
+      <c r="L13" s="68">
         <v>15</v>
       </c>
-      <c r="M13" s="51">
+      <c r="M13" s="40">
         <v>30</v>
       </c>
-      <c r="N13" s="94" t="s">
+      <c r="N13" s="69" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="14" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B14" s="25"/>
-      <c r="C14" s="71">
+      <c r="B14" s="152"/>
+      <c r="C14" s="55">
         <v>40006</v>
       </c>
-      <c r="D14" s="71" t="s">
+      <c r="D14" s="55" t="s">
         <v>58</v>
       </c>
-      <c r="E14" s="71" t="s">
+      <c r="E14" s="55" t="s">
         <v>8</v>
       </c>
-      <c r="F14" s="72" t="s">
+      <c r="F14" s="56" t="s">
         <v>36</v>
       </c>
-      <c r="G14" s="71" t="s">
+      <c r="G14" s="55" t="s">
         <v>7</v>
       </c>
-      <c r="H14" s="107">
+      <c r="H14" s="78">
         <v>0</v>
       </c>
-      <c r="I14" s="74" t="s">
+      <c r="I14" s="142" t="s">
         <v>39</v>
       </c>
-      <c r="J14" s="75"/>
-      <c r="K14" s="75"/>
-      <c r="L14" s="76"/>
-      <c r="M14" s="108">
+      <c r="J14" s="143"/>
+      <c r="K14" s="143"/>
+      <c r="L14" s="144"/>
+      <c r="M14" s="79">
         <v>1</v>
       </c>
-      <c r="N14" s="109" t="s">
+      <c r="N14" s="80" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="15" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B15" s="25"/>
-      <c r="C15" s="71">
+      <c r="B15" s="152"/>
+      <c r="C15" s="55">
         <v>40007</v>
       </c>
-      <c r="D15" s="71" t="s">
+      <c r="D15" s="55" t="s">
         <v>57</v>
       </c>
-      <c r="E15" s="71" t="s">
+      <c r="E15" s="55" t="s">
         <v>8</v>
       </c>
-      <c r="F15" s="72" t="s">
+      <c r="F15" s="56" t="s">
         <v>26</v>
       </c>
-      <c r="G15" s="71" t="s">
+      <c r="G15" s="55" t="s">
         <v>7</v>
       </c>
-      <c r="H15" s="107">
+      <c r="H15" s="78">
         <v>0</v>
       </c>
-      <c r="I15" s="74" t="s">
+      <c r="I15" s="142" t="s">
         <v>39</v>
       </c>
-      <c r="J15" s="75"/>
-      <c r="K15" s="75"/>
-      <c r="L15" s="76"/>
-      <c r="M15" s="108">
+      <c r="J15" s="143"/>
+      <c r="K15" s="143"/>
+      <c r="L15" s="144"/>
+      <c r="M15" s="79">
         <v>1</v>
       </c>
-      <c r="N15" s="109" t="s">
+      <c r="N15" s="80" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="16" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B16" s="25"/>
+      <c r="B16" s="152"/>
       <c r="C16" s="4">
         <v>40008</v>
       </c>
@@ -2771,7 +2771,7 @@
       <c r="H16" s="19">
         <v>0</v>
       </c>
-      <c r="I16" s="66">
+      <c r="I16" s="53">
         <v>10</v>
       </c>
       <c r="J16" s="16">
@@ -2780,7 +2780,7 @@
       <c r="K16" s="16">
         <v>40</v>
       </c>
-      <c r="L16" s="67">
+      <c r="L16" s="54">
         <v>80</v>
       </c>
       <c r="M16" s="21">
@@ -2791,7 +2791,7 @@
       </c>
     </row>
     <row r="17" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B17" s="25"/>
+      <c r="B17" s="152"/>
       <c r="C17" s="4">
         <v>40009</v>
       </c>
@@ -2810,7 +2810,7 @@
       <c r="H17" s="19">
         <v>0</v>
       </c>
-      <c r="I17" s="66">
+      <c r="I17" s="53">
         <v>10</v>
       </c>
       <c r="J17" s="16">
@@ -2819,7 +2819,7 @@
       <c r="K17" s="16">
         <v>40</v>
       </c>
-      <c r="L17" s="67">
+      <c r="L17" s="54">
         <v>80</v>
       </c>
       <c r="M17" s="21">
@@ -2830,7 +2830,7 @@
       </c>
     </row>
     <row r="18" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B18" s="25"/>
+      <c r="B18" s="152"/>
       <c r="C18" s="4">
         <v>40010</v>
       </c>
@@ -2849,7 +2849,7 @@
       <c r="H18" s="19">
         <v>0</v>
       </c>
-      <c r="I18" s="66">
+      <c r="I18" s="53">
         <v>10</v>
       </c>
       <c r="J18" s="16">
@@ -2858,7 +2858,7 @@
       <c r="K18" s="16">
         <v>60</v>
       </c>
-      <c r="L18" s="67">
+      <c r="L18" s="54">
         <v>80</v>
       </c>
       <c r="M18" s="21">
@@ -2869,40 +2869,40 @@
       </c>
     </row>
     <row r="19" spans="2:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="25"/>
-      <c r="C19" s="71">
+      <c r="B19" s="152"/>
+      <c r="C19" s="55">
         <v>40011</v>
       </c>
-      <c r="D19" s="71" t="s">
+      <c r="D19" s="55" t="s">
         <v>53</v>
       </c>
-      <c r="E19" s="71" t="s">
+      <c r="E19" s="55" t="s">
         <v>8</v>
       </c>
-      <c r="F19" s="72" t="s">
+      <c r="F19" s="56" t="s">
         <v>25</v>
       </c>
-      <c r="G19" s="71" t="s">
+      <c r="G19" s="55" t="s">
         <v>7</v>
       </c>
-      <c r="H19" s="73" t="s">
+      <c r="H19" s="57" t="s">
         <v>96</v>
       </c>
-      <c r="I19" s="74" t="s">
+      <c r="I19" s="142" t="s">
         <v>89</v>
       </c>
-      <c r="J19" s="75"/>
-      <c r="K19" s="75"/>
-      <c r="L19" s="76"/>
-      <c r="M19" s="77" t="s">
+      <c r="J19" s="143"/>
+      <c r="K19" s="143"/>
+      <c r="L19" s="144"/>
+      <c r="M19" s="58" t="s">
         <v>97</v>
       </c>
-      <c r="N19" s="109" t="s">
+      <c r="N19" s="80" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="20" spans="2:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="25"/>
+      <c r="B20" s="152"/>
       <c r="C20" s="4">
         <v>40012</v>
       </c>
@@ -2921,7 +2921,7 @@
       <c r="H20" s="19" t="s">
         <v>91</v>
       </c>
-      <c r="I20" s="96">
+      <c r="I20" s="70">
         <v>0</v>
       </c>
       <c r="J20" s="20">
@@ -2930,7 +2930,7 @@
       <c r="K20" s="20">
         <v>1</v>
       </c>
-      <c r="L20" s="97">
+      <c r="L20" s="71">
         <v>1</v>
       </c>
       <c r="M20" s="21" t="s">
@@ -2941,7 +2941,7 @@
       </c>
     </row>
     <row r="21" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B21" s="25"/>
+      <c r="B21" s="152"/>
       <c r="C21" s="4">
         <v>40013</v>
       </c>
@@ -2960,16 +2960,16 @@
       <c r="H21" s="19">
         <v>0</v>
       </c>
-      <c r="I21" s="95" t="s">
+      <c r="I21" s="154" t="s">
         <v>100</v>
       </c>
-      <c r="J21" s="26"/>
-      <c r="K21" s="26"/>
-      <c r="L21" s="68"/>
+      <c r="J21" s="155"/>
+      <c r="K21" s="155"/>
+      <c r="L21" s="156"/>
       <c r="M21" s="21">
         <v>40</v>
       </c>
-      <c r="N21" s="94" t="s">
+      <c r="N21" s="69" t="s">
         <v>104</v>
       </c>
       <c r="O21" s="1" t="s">
@@ -2977,7 +2977,7 @@
       </c>
     </row>
     <row r="22" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B22" s="25"/>
+      <c r="B22" s="152"/>
       <c r="C22" s="4">
         <v>40014</v>
       </c>
@@ -2996,16 +2996,16 @@
       <c r="H22" s="19">
         <v>0</v>
       </c>
-      <c r="I22" s="95" t="s">
+      <c r="I22" s="154" t="s">
         <v>100</v>
       </c>
-      <c r="J22" s="26"/>
-      <c r="K22" s="26"/>
-      <c r="L22" s="68"/>
+      <c r="J22" s="155"/>
+      <c r="K22" s="155"/>
+      <c r="L22" s="156"/>
       <c r="M22" s="21">
         <v>333.3</v>
       </c>
-      <c r="N22" s="94" t="s">
+      <c r="N22" s="69" t="s">
         <v>104</v>
       </c>
       <c r="O22" s="1" t="s">
@@ -3013,172 +3013,172 @@
       </c>
     </row>
     <row r="23" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B23" s="25"/>
-      <c r="C23" s="71">
+      <c r="B23" s="152"/>
+      <c r="C23" s="55">
         <v>40015</v>
       </c>
-      <c r="D23" s="71" t="s">
+      <c r="D23" s="55" t="s">
         <v>49</v>
       </c>
-      <c r="E23" s="71" t="s">
+      <c r="E23" s="55" t="s">
         <v>8</v>
       </c>
-      <c r="F23" s="72" t="s">
+      <c r="F23" s="56" t="s">
         <v>37</v>
       </c>
-      <c r="G23" s="71" t="s">
+      <c r="G23" s="55" t="s">
         <v>7</v>
       </c>
-      <c r="H23" s="107">
+      <c r="H23" s="78">
         <v>0</v>
       </c>
-      <c r="I23" s="74" t="s">
+      <c r="I23" s="142" t="s">
         <v>39</v>
       </c>
-      <c r="J23" s="75"/>
-      <c r="K23" s="75"/>
-      <c r="L23" s="76"/>
-      <c r="M23" s="108">
+      <c r="J23" s="143"/>
+      <c r="K23" s="143"/>
+      <c r="L23" s="144"/>
+      <c r="M23" s="79">
         <v>1</v>
       </c>
-      <c r="N23" s="109" t="s">
+      <c r="N23" s="80" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="24" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="25"/>
-      <c r="C24" s="71">
+      <c r="B24" s="152"/>
+      <c r="C24" s="55">
         <v>40016</v>
       </c>
-      <c r="D24" s="71" t="s">
+      <c r="D24" s="55" t="s">
         <v>48</v>
       </c>
-      <c r="E24" s="71" t="s">
+      <c r="E24" s="55" t="s">
         <v>8</v>
       </c>
-      <c r="F24" s="72" t="s">
+      <c r="F24" s="56" t="s">
         <v>34</v>
       </c>
-      <c r="G24" s="71" t="s">
+      <c r="G24" s="55" t="s">
         <v>7</v>
       </c>
-      <c r="H24" s="73" t="s">
+      <c r="H24" s="57" t="s">
         <v>96</v>
       </c>
-      <c r="I24" s="74" t="s">
+      <c r="I24" s="142" t="s">
         <v>89</v>
       </c>
-      <c r="J24" s="75"/>
-      <c r="K24" s="75"/>
-      <c r="L24" s="76"/>
-      <c r="M24" s="77" t="s">
+      <c r="J24" s="143"/>
+      <c r="K24" s="143"/>
+      <c r="L24" s="144"/>
+      <c r="M24" s="58" t="s">
         <v>97</v>
       </c>
-      <c r="N24" s="109" t="s">
+      <c r="N24" s="80" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="25" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="25"/>
-      <c r="C25" s="71">
+      <c r="B25" s="152"/>
+      <c r="C25" s="55">
         <v>40017</v>
       </c>
-      <c r="D25" s="71" t="s">
+      <c r="D25" s="55" t="s">
         <v>47</v>
       </c>
-      <c r="E25" s="71" t="s">
+      <c r="E25" s="55" t="s">
         <v>8</v>
       </c>
-      <c r="F25" s="72" t="s">
+      <c r="F25" s="56" t="s">
         <v>31</v>
       </c>
-      <c r="G25" s="71" t="s">
+      <c r="G25" s="55" t="s">
         <v>7</v>
       </c>
-      <c r="H25" s="73" t="s">
+      <c r="H25" s="57" t="s">
         <v>96</v>
       </c>
-      <c r="I25" s="74" t="s">
+      <c r="I25" s="142" t="s">
         <v>89</v>
       </c>
-      <c r="J25" s="75"/>
-      <c r="K25" s="75"/>
-      <c r="L25" s="76"/>
-      <c r="M25" s="77" t="s">
+      <c r="J25" s="143"/>
+      <c r="K25" s="143"/>
+      <c r="L25" s="144"/>
+      <c r="M25" s="58" t="s">
         <v>97</v>
       </c>
-      <c r="N25" s="109" t="s">
+      <c r="N25" s="80" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="26" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B26" s="25"/>
-      <c r="C26" s="71">
+      <c r="B26" s="152"/>
+      <c r="C26" s="55">
         <v>40018</v>
       </c>
-      <c r="D26" s="71" t="s">
+      <c r="D26" s="55" t="s">
         <v>46</v>
       </c>
-      <c r="E26" s="71" t="s">
+      <c r="E26" s="55" t="s">
         <v>8</v>
       </c>
-      <c r="F26" s="72" t="s">
+      <c r="F26" s="56" t="s">
         <v>32</v>
       </c>
-      <c r="G26" s="71" t="s">
+      <c r="G26" s="55" t="s">
         <v>7</v>
       </c>
-      <c r="H26" s="73" t="s">
+      <c r="H26" s="57" t="s">
         <v>96</v>
       </c>
-      <c r="I26" s="74" t="s">
+      <c r="I26" s="142" t="s">
         <v>89</v>
       </c>
-      <c r="J26" s="75"/>
-      <c r="K26" s="75"/>
-      <c r="L26" s="76"/>
-      <c r="M26" s="77" t="s">
+      <c r="J26" s="143"/>
+      <c r="K26" s="143"/>
+      <c r="L26" s="144"/>
+      <c r="M26" s="58" t="s">
         <v>97</v>
       </c>
-      <c r="N26" s="109" t="s">
+      <c r="N26" s="80" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="27" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="25"/>
-      <c r="C27" s="71">
+      <c r="B27" s="152"/>
+      <c r="C27" s="55">
         <v>40019</v>
       </c>
-      <c r="D27" s="71" t="s">
+      <c r="D27" s="55" t="s">
         <v>45</v>
       </c>
-      <c r="E27" s="71" t="s">
+      <c r="E27" s="55" t="s">
         <v>8</v>
       </c>
-      <c r="F27" s="72" t="s">
+      <c r="F27" s="56" t="s">
         <v>33</v>
       </c>
-      <c r="G27" s="71" t="s">
+      <c r="G27" s="55" t="s">
         <v>7</v>
       </c>
-      <c r="H27" s="73" t="s">
+      <c r="H27" s="57" t="s">
         <v>96</v>
       </c>
-      <c r="I27" s="74" t="s">
+      <c r="I27" s="142" t="s">
         <v>89</v>
       </c>
-      <c r="J27" s="75"/>
-      <c r="K27" s="75"/>
-      <c r="L27" s="76"/>
-      <c r="M27" s="77" t="s">
+      <c r="J27" s="143"/>
+      <c r="K27" s="143"/>
+      <c r="L27" s="144"/>
+      <c r="M27" s="58" t="s">
         <v>97</v>
       </c>
-      <c r="N27" s="109" t="s">
+      <c r="N27" s="80" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="28" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B28" s="25"/>
+      <c r="B28" s="152"/>
       <c r="C28" s="4">
         <v>40020</v>
       </c>
@@ -3194,57 +3194,57 @@
       <c r="G28" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="H28" s="31">
+      <c r="H28" s="22">
         <v>0</v>
       </c>
-      <c r="I28" s="95" t="s">
+      <c r="I28" s="154" t="s">
         <v>100</v>
       </c>
-      <c r="J28" s="26"/>
-      <c r="K28" s="26"/>
-      <c r="L28" s="68"/>
-      <c r="M28" s="51">
+      <c r="J28" s="155"/>
+      <c r="K28" s="155"/>
+      <c r="L28" s="156"/>
+      <c r="M28" s="40">
         <v>1000</v>
       </c>
-      <c r="N28" s="94" t="s">
+      <c r="N28" s="69" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="29" spans="2:15" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B29" s="36"/>
-      <c r="C29" s="37">
+      <c r="B29" s="153"/>
+      <c r="C29" s="27">
         <v>40021</v>
       </c>
-      <c r="D29" s="37" t="s">
+      <c r="D29" s="27" t="s">
         <v>43</v>
       </c>
-      <c r="E29" s="37" t="s">
+      <c r="E29" s="27" t="s">
         <v>9</v>
       </c>
-      <c r="F29" s="38" t="s">
+      <c r="F29" s="28" t="s">
         <v>75</v>
       </c>
-      <c r="G29" s="39" t="s">
+      <c r="G29" s="29" t="s">
         <v>92</v>
       </c>
-      <c r="H29" s="40">
+      <c r="H29" s="30">
         <v>0</v>
       </c>
-      <c r="I29" s="95" t="s">
+      <c r="I29" s="154" t="s">
         <v>100</v>
       </c>
-      <c r="J29" s="26"/>
-      <c r="K29" s="26"/>
-      <c r="L29" s="68"/>
-      <c r="M29" s="52">
+      <c r="J29" s="155"/>
+      <c r="K29" s="155"/>
+      <c r="L29" s="156"/>
+      <c r="M29" s="41">
         <v>15000</v>
       </c>
-      <c r="N29" s="105" t="s">
+      <c r="N29" s="76" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="30" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B30" s="22" t="s">
+      <c r="B30" s="136" t="s">
         <v>40</v>
       </c>
       <c r="C30" s="9">
@@ -3262,21 +3262,21 @@
       <c r="G30" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="H30" s="33">
+      <c r="H30" s="24">
         <f>H4</f>
         <v>0</v>
       </c>
-      <c r="I30" s="101" t="s">
+      <c r="I30" s="130" t="s">
         <v>100</v>
       </c>
-      <c r="J30" s="99"/>
-      <c r="K30" s="99"/>
-      <c r="L30" s="100"/>
-      <c r="M30" s="47">
+      <c r="J30" s="131"/>
+      <c r="K30" s="131"/>
+      <c r="L30" s="132"/>
+      <c r="M30" s="36">
         <f>M21</f>
         <v>40</v>
       </c>
-      <c r="N30" s="98" t="s">
+      <c r="N30" s="72" t="s">
         <v>104</v>
       </c>
       <c r="O30" s="1" t="s">
@@ -3284,35 +3284,35 @@
       </c>
     </row>
     <row r="31" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B31" s="24"/>
-      <c r="C31" s="78">
+      <c r="B31" s="137"/>
+      <c r="C31" s="59">
         <v>40002</v>
       </c>
-      <c r="D31" s="78" t="s">
+      <c r="D31" s="59" t="s">
         <v>79</v>
       </c>
-      <c r="E31" s="78" t="s">
+      <c r="E31" s="59" t="s">
         <v>8</v>
       </c>
-      <c r="F31" s="79" t="s">
+      <c r="F31" s="60" t="s">
         <v>42</v>
       </c>
-      <c r="G31" s="78" t="s">
+      <c r="G31" s="59" t="s">
         <v>7</v>
       </c>
-      <c r="H31" s="80" t="s">
+      <c r="H31" s="61" t="s">
         <v>96</v>
       </c>
-      <c r="I31" s="81" t="s">
+      <c r="I31" s="133" t="s">
         <v>35</v>
       </c>
-      <c r="J31" s="82"/>
-      <c r="K31" s="82"/>
-      <c r="L31" s="83"/>
-      <c r="M31" s="84" t="s">
+      <c r="J31" s="134"/>
+      <c r="K31" s="134"/>
+      <c r="L31" s="135"/>
+      <c r="M31" s="62" t="s">
         <v>97</v>
       </c>
-      <c r="N31" s="106" t="s">
+      <c r="N31" s="77" t="s">
         <v>104</v>
       </c>
     </row>
@@ -3379,6 +3379,19 @@
     </row>
   </sheetData>
   <mergeCells count="29">
+    <mergeCell ref="B4:B8"/>
+    <mergeCell ref="B9:B29"/>
+    <mergeCell ref="I22:L22"/>
+    <mergeCell ref="I21:L21"/>
+    <mergeCell ref="I28:L28"/>
+    <mergeCell ref="I29:L29"/>
+    <mergeCell ref="I15:L15"/>
+    <mergeCell ref="I14:L14"/>
+    <mergeCell ref="I2:L2"/>
+    <mergeCell ref="G2:G3"/>
+    <mergeCell ref="I6:L6"/>
+    <mergeCell ref="I7:L7"/>
+    <mergeCell ref="I11:L11"/>
     <mergeCell ref="N2:N3"/>
     <mergeCell ref="I30:L30"/>
     <mergeCell ref="I31:L31"/>
@@ -3395,19 +3408,6 @@
     <mergeCell ref="I27:L27"/>
     <mergeCell ref="I19:L19"/>
     <mergeCell ref="I23:L23"/>
-    <mergeCell ref="I15:L15"/>
-    <mergeCell ref="I14:L14"/>
-    <mergeCell ref="I2:L2"/>
-    <mergeCell ref="G2:G3"/>
-    <mergeCell ref="I6:L6"/>
-    <mergeCell ref="I7:L7"/>
-    <mergeCell ref="I11:L11"/>
-    <mergeCell ref="B4:B8"/>
-    <mergeCell ref="B9:B29"/>
-    <mergeCell ref="I22:L22"/>
-    <mergeCell ref="I21:L21"/>
-    <mergeCell ref="I28:L28"/>
-    <mergeCell ref="I29:L29"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -3447,7 +3447,7 @@
   <dimension ref="A1:O40"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="O15" sqref="O15"/>
+      <selection activeCell="N7" sqref="N7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3467,10 +3467,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="168" t="s">
+      <c r="A1" s="176" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="170" t="s">
+      <c r="B1" s="178" t="s">
         <v>107</v>
       </c>
       <c r="C1" s="171" t="s">
@@ -3485,7 +3485,7 @@
       <c r="F1" s="172" t="s">
         <v>113</v>
       </c>
-      <c r="G1" s="173" t="s">
+      <c r="G1" s="159" t="s">
         <v>84</v>
       </c>
       <c r="H1" s="171" t="s">
@@ -3494,7 +3494,7 @@
       <c r="I1" s="171"/>
       <c r="J1" s="171"/>
       <c r="K1" s="171"/>
-      <c r="L1" s="174" t="s">
+      <c r="L1" s="157" t="s">
         <v>85</v>
       </c>
       <c r="M1" s="172" t="s">
@@ -3502,1018 +3502,1018 @@
       </c>
     </row>
     <row r="2" spans="1:14" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="169"/>
-      <c r="B2" s="175"/>
-      <c r="C2" s="176"/>
-      <c r="D2" s="176"/>
-      <c r="E2" s="176"/>
-      <c r="F2" s="177"/>
-      <c r="G2" s="178"/>
-      <c r="H2" s="179" t="s">
+      <c r="A2" s="177"/>
+      <c r="B2" s="179"/>
+      <c r="C2" s="180"/>
+      <c r="D2" s="180"/>
+      <c r="E2" s="180"/>
+      <c r="F2" s="173"/>
+      <c r="G2" s="160"/>
+      <c r="H2" s="127" t="s">
         <v>80</v>
       </c>
-      <c r="I2" s="179" t="s">
+      <c r="I2" s="127" t="s">
         <v>81</v>
       </c>
-      <c r="J2" s="179" t="s">
+      <c r="J2" s="127" t="s">
         <v>82</v>
       </c>
-      <c r="K2" s="179" t="s">
+      <c r="K2" s="127" t="s">
         <v>83</v>
       </c>
-      <c r="L2" s="180"/>
-      <c r="M2" s="177"/>
+      <c r="L2" s="158"/>
+      <c r="M2" s="173"/>
       <c r="N2" s="2"/>
     </row>
     <row r="3" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="143" t="s">
+      <c r="A3" s="166" t="s">
         <v>14</v>
       </c>
-      <c r="B3" s="155">
+      <c r="B3" s="114">
         <v>40001</v>
       </c>
-      <c r="C3" s="121" t="s">
+      <c r="C3" s="89" t="s">
         <v>68</v>
       </c>
-      <c r="D3" s="121" t="s">
+      <c r="D3" s="89" t="s">
         <v>9</v>
       </c>
-      <c r="E3" s="122" t="s">
+      <c r="E3" s="90" t="s">
         <v>5</v>
       </c>
-      <c r="F3" s="156" t="s">
+      <c r="F3" s="115" t="s">
         <v>10</v>
       </c>
-      <c r="G3" s="146">
+      <c r="G3" s="105">
         <v>0</v>
       </c>
-      <c r="H3" s="121">
+      <c r="H3" s="89">
         <v>10</v>
       </c>
-      <c r="I3" s="121">
+      <c r="I3" s="89">
         <v>25</v>
       </c>
-      <c r="J3" s="121">
+      <c r="J3" s="89">
         <v>55</v>
       </c>
-      <c r="K3" s="121">
+      <c r="K3" s="89">
         <v>70</v>
       </c>
-      <c r="L3" s="121">
+      <c r="L3" s="89">
         <v>100</v>
       </c>
-      <c r="M3" s="125" t="s">
+      <c r="M3" s="91" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A4" s="144"/>
-      <c r="B4" s="157">
+      <c r="A4" s="174"/>
+      <c r="B4" s="116">
         <v>40002</v>
       </c>
-      <c r="C4" s="111" t="s">
+      <c r="C4" s="82" t="s">
         <v>67</v>
       </c>
-      <c r="D4" s="111" t="s">
+      <c r="D4" s="82" t="s">
         <v>9</v>
       </c>
-      <c r="E4" s="112" t="s">
+      <c r="E4" s="83" t="s">
         <v>112</v>
       </c>
-      <c r="F4" s="135" t="s">
+      <c r="F4" s="99" t="s">
         <v>87</v>
       </c>
-      <c r="G4" s="147">
+      <c r="G4" s="106">
         <v>0</v>
       </c>
-      <c r="H4" s="111">
+      <c r="H4" s="82">
         <v>10</v>
       </c>
-      <c r="I4" s="111">
+      <c r="I4" s="82">
         <v>20</v>
       </c>
-      <c r="J4" s="111">
+      <c r="J4" s="82">
         <v>30</v>
       </c>
-      <c r="K4" s="111">
+      <c r="K4" s="82">
         <v>40</v>
       </c>
-      <c r="L4" s="111">
+      <c r="L4" s="82">
         <v>5000</v>
       </c>
-      <c r="M4" s="132" t="s">
+      <c r="M4" s="96" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="5" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="144"/>
-      <c r="B5" s="158">
+      <c r="A5" s="174"/>
+      <c r="B5" s="117">
         <v>40003</v>
       </c>
-      <c r="C5" s="115" t="s">
+      <c r="C5" s="84" t="s">
         <v>66</v>
       </c>
-      <c r="D5" s="115" t="s">
+      <c r="D5" s="84" t="s">
         <v>8</v>
       </c>
-      <c r="E5" s="116" t="s">
+      <c r="E5" s="85" t="s">
         <v>6</v>
       </c>
-      <c r="F5" s="159" t="s">
+      <c r="F5" s="118" t="s">
         <v>7</v>
       </c>
-      <c r="G5" s="148" t="s">
+      <c r="G5" s="107" t="s">
         <v>95</v>
       </c>
-      <c r="H5" s="117" t="s">
+      <c r="H5" s="161" t="s">
         <v>110</v>
       </c>
-      <c r="I5" s="117"/>
-      <c r="J5" s="117"/>
-      <c r="K5" s="117"/>
-      <c r="L5" s="115" t="s">
+      <c r="I5" s="161"/>
+      <c r="J5" s="161"/>
+      <c r="K5" s="161"/>
+      <c r="L5" s="84" t="s">
         <v>102</v>
       </c>
-      <c r="M5" s="133" t="s">
+      <c r="M5" s="97" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="6" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="144"/>
-      <c r="B6" s="158">
+      <c r="A6" s="174"/>
+      <c r="B6" s="117">
         <v>40004</v>
       </c>
-      <c r="C6" s="115" t="s">
+      <c r="C6" s="84" t="s">
         <v>65</v>
       </c>
-      <c r="D6" s="115" t="s">
+      <c r="D6" s="84" t="s">
         <v>8</v>
       </c>
-      <c r="E6" s="116" t="s">
+      <c r="E6" s="85" t="s">
         <v>13</v>
       </c>
-      <c r="F6" s="159" t="s">
+      <c r="F6" s="118" t="s">
         <v>7</v>
       </c>
-      <c r="G6" s="148" t="s">
+      <c r="G6" s="107" t="s">
         <v>95</v>
       </c>
-      <c r="H6" s="117" t="s">
+      <c r="H6" s="161" t="s">
         <v>110</v>
       </c>
-      <c r="I6" s="117"/>
-      <c r="J6" s="117"/>
-      <c r="K6" s="117"/>
-      <c r="L6" s="115" t="s">
+      <c r="I6" s="161"/>
+      <c r="J6" s="161"/>
+      <c r="K6" s="161"/>
+      <c r="L6" s="84" t="s">
         <v>102</v>
       </c>
-      <c r="M6" s="133" t="s">
+      <c r="M6" s="97" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="7" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="145"/>
-      <c r="B7" s="160">
+      <c r="A7" s="175"/>
+      <c r="B7" s="119">
         <v>40005</v>
       </c>
-      <c r="C7" s="136" t="s">
+      <c r="C7" s="100" t="s">
         <v>64</v>
       </c>
-      <c r="D7" s="136" t="s">
+      <c r="D7" s="100" t="s">
         <v>9</v>
       </c>
-      <c r="E7" s="137" t="s">
+      <c r="E7" s="101" t="s">
         <v>21</v>
       </c>
-      <c r="F7" s="142" t="s">
+      <c r="F7" s="104" t="s">
         <v>19</v>
       </c>
-      <c r="G7" s="149">
+      <c r="G7" s="108">
         <v>0</v>
       </c>
-      <c r="H7" s="136">
+      <c r="H7" s="100">
         <v>3</v>
       </c>
-      <c r="I7" s="136">
+      <c r="I7" s="100">
         <v>5</v>
       </c>
-      <c r="J7" s="136">
+      <c r="J7" s="100">
         <v>12</v>
       </c>
-      <c r="K7" s="136">
+      <c r="K7" s="100">
         <v>15</v>
       </c>
-      <c r="L7" s="136">
+      <c r="L7" s="100">
         <v>30</v>
       </c>
-      <c r="M7" s="142" t="s">
+      <c r="M7" s="104" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="8" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="143" t="s">
+      <c r="A8" s="166" t="s">
         <v>38</v>
       </c>
-      <c r="B8" s="155">
+      <c r="B8" s="114">
         <v>40001</v>
       </c>
-      <c r="C8" s="121" t="s">
+      <c r="C8" s="89" t="s">
         <v>63</v>
       </c>
-      <c r="D8" s="130" t="s">
+      <c r="D8" s="94" t="s">
         <v>9</v>
       </c>
-      <c r="E8" s="131" t="s">
+      <c r="E8" s="95" t="s">
         <v>15</v>
       </c>
-      <c r="F8" s="156" t="s">
+      <c r="F8" s="115" t="s">
         <v>19</v>
       </c>
-      <c r="G8" s="146">
+      <c r="G8" s="105">
         <v>0</v>
       </c>
-      <c r="H8" s="121">
+      <c r="H8" s="89">
         <v>3</v>
       </c>
-      <c r="I8" s="121">
+      <c r="I8" s="89">
         <v>5</v>
       </c>
-      <c r="J8" s="121">
+      <c r="J8" s="89">
         <v>12</v>
       </c>
-      <c r="K8" s="121">
+      <c r="K8" s="89">
         <v>15</v>
       </c>
-      <c r="L8" s="121">
+      <c r="L8" s="89">
         <v>30</v>
       </c>
-      <c r="M8" s="125" t="s">
+      <c r="M8" s="91" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A9" s="144"/>
-      <c r="B9" s="157">
+      <c r="A9" s="174"/>
+      <c r="B9" s="116">
         <v>40002</v>
       </c>
-      <c r="C9" s="111" t="s">
+      <c r="C9" s="82" t="s">
         <v>62</v>
       </c>
-      <c r="D9" s="118" t="s">
+      <c r="D9" s="86" t="s">
         <v>9</v>
       </c>
-      <c r="E9" s="119" t="s">
+      <c r="E9" s="87" t="s">
         <v>16</v>
       </c>
-      <c r="F9" s="135" t="s">
+      <c r="F9" s="99" t="s">
         <v>19</v>
       </c>
-      <c r="G9" s="147">
+      <c r="G9" s="106">
         <v>0</v>
       </c>
-      <c r="H9" s="111">
+      <c r="H9" s="82">
         <v>3</v>
       </c>
-      <c r="I9" s="111">
+      <c r="I9" s="82">
         <v>5</v>
       </c>
-      <c r="J9" s="111">
+      <c r="J9" s="82">
         <v>12</v>
       </c>
-      <c r="K9" s="111">
+      <c r="K9" s="82">
         <v>15</v>
       </c>
-      <c r="L9" s="111">
+      <c r="L9" s="82">
         <v>30</v>
       </c>
-      <c r="M9" s="132" t="s">
+      <c r="M9" s="96" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="10" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="144"/>
-      <c r="B10" s="158">
+      <c r="A10" s="174"/>
+      <c r="B10" s="117">
         <v>40003</v>
       </c>
-      <c r="C10" s="115" t="s">
+      <c r="C10" s="84" t="s">
         <v>61</v>
       </c>
-      <c r="D10" s="115" t="s">
+      <c r="D10" s="84" t="s">
         <v>8</v>
       </c>
-      <c r="E10" s="116" t="s">
+      <c r="E10" s="85" t="s">
         <v>17</v>
       </c>
-      <c r="F10" s="159" t="s">
+      <c r="F10" s="118" t="s">
         <v>7</v>
       </c>
-      <c r="G10" s="148" t="s">
+      <c r="G10" s="107" t="s">
         <v>95</v>
       </c>
-      <c r="H10" s="117" t="s">
+      <c r="H10" s="161" t="s">
         <v>110</v>
       </c>
-      <c r="I10" s="117"/>
-      <c r="J10" s="117"/>
-      <c r="K10" s="117"/>
-      <c r="L10" s="115" t="s">
+      <c r="I10" s="161"/>
+      <c r="J10" s="161"/>
+      <c r="K10" s="161"/>
+      <c r="L10" s="84" t="s">
         <v>102</v>
       </c>
-      <c r="M10" s="133" t="s">
+      <c r="M10" s="97" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="11" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="144"/>
-      <c r="B11" s="158">
+      <c r="A11" s="174"/>
+      <c r="B11" s="117">
         <v>40004</v>
       </c>
-      <c r="C11" s="115" t="s">
+      <c r="C11" s="84" t="s">
         <v>60</v>
       </c>
-      <c r="D11" s="115" t="s">
+      <c r="D11" s="84" t="s">
         <v>8</v>
       </c>
-      <c r="E11" s="116" t="s">
+      <c r="E11" s="85" t="s">
         <v>18</v>
       </c>
-      <c r="F11" s="159" t="s">
+      <c r="F11" s="118" t="s">
         <v>7</v>
       </c>
-      <c r="G11" s="148" t="s">
+      <c r="G11" s="107" t="s">
         <v>95</v>
       </c>
-      <c r="H11" s="117" t="s">
+      <c r="H11" s="161" t="s">
         <v>110</v>
       </c>
-      <c r="I11" s="117"/>
-      <c r="J11" s="117"/>
-      <c r="K11" s="117"/>
-      <c r="L11" s="115" t="s">
+      <c r="I11" s="161"/>
+      <c r="J11" s="161"/>
+      <c r="K11" s="161"/>
+      <c r="L11" s="84" t="s">
         <v>102</v>
       </c>
-      <c r="M11" s="133" t="s">
+      <c r="M11" s="97" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A12" s="144"/>
-      <c r="B12" s="161">
+      <c r="A12" s="174"/>
+      <c r="B12" s="120">
         <v>40005</v>
       </c>
-      <c r="C12" s="118" t="s">
+      <c r="C12" s="86" t="s">
         <v>59</v>
       </c>
-      <c r="D12" s="118" t="s">
+      <c r="D12" s="86" t="s">
         <v>9</v>
       </c>
-      <c r="E12" s="119" t="s">
+      <c r="E12" s="87" t="s">
         <v>20</v>
       </c>
-      <c r="F12" s="162" t="s">
+      <c r="F12" s="121" t="s">
         <v>19</v>
       </c>
-      <c r="G12" s="150">
+      <c r="G12" s="109">
         <v>0</v>
       </c>
-      <c r="H12" s="118">
+      <c r="H12" s="86">
         <v>3</v>
       </c>
-      <c r="I12" s="118">
+      <c r="I12" s="86">
         <v>5</v>
       </c>
-      <c r="J12" s="118">
+      <c r="J12" s="86">
         <v>12</v>
       </c>
-      <c r="K12" s="118">
+      <c r="K12" s="86">
         <v>15</v>
       </c>
-      <c r="L12" s="118">
+      <c r="L12" s="86">
         <v>30</v>
       </c>
-      <c r="M12" s="134" t="s">
+      <c r="M12" s="98" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="13" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="144"/>
-      <c r="B13" s="158">
+      <c r="A13" s="174"/>
+      <c r="B13" s="117">
         <v>40006</v>
       </c>
-      <c r="C13" s="115" t="s">
+      <c r="C13" s="84" t="s">
         <v>58</v>
       </c>
-      <c r="D13" s="115" t="s">
+      <c r="D13" s="84" t="s">
         <v>8</v>
       </c>
-      <c r="E13" s="116" t="s">
+      <c r="E13" s="85" t="s">
         <v>36</v>
       </c>
-      <c r="F13" s="159" t="s">
+      <c r="F13" s="118" t="s">
         <v>7</v>
       </c>
-      <c r="G13" s="151">
+      <c r="G13" s="110">
         <v>0</v>
       </c>
-      <c r="H13" s="117" t="s">
+      <c r="H13" s="161" t="s">
         <v>111</v>
       </c>
-      <c r="I13" s="117"/>
-      <c r="J13" s="117"/>
-      <c r="K13" s="117"/>
-      <c r="L13" s="120">
+      <c r="I13" s="161"/>
+      <c r="J13" s="161"/>
+      <c r="K13" s="161"/>
+      <c r="L13" s="88">
         <v>1</v>
       </c>
-      <c r="M13" s="133" t="s">
+      <c r="M13" s="97" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="14" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="144"/>
-      <c r="B14" s="158">
+      <c r="A14" s="174"/>
+      <c r="B14" s="117">
         <v>40007</v>
       </c>
-      <c r="C14" s="115" t="s">
+      <c r="C14" s="84" t="s">
         <v>57</v>
       </c>
-      <c r="D14" s="115" t="s">
+      <c r="D14" s="84" t="s">
         <v>8</v>
       </c>
-      <c r="E14" s="116" t="s">
+      <c r="E14" s="85" t="s">
         <v>26</v>
       </c>
-      <c r="F14" s="159" t="s">
+      <c r="F14" s="118" t="s">
         <v>7</v>
       </c>
-      <c r="G14" s="151">
+      <c r="G14" s="110">
         <v>0</v>
       </c>
-      <c r="H14" s="117" t="s">
+      <c r="H14" s="161" t="s">
         <v>111</v>
       </c>
-      <c r="I14" s="117"/>
-      <c r="J14" s="117"/>
-      <c r="K14" s="117"/>
-      <c r="L14" s="120">
+      <c r="I14" s="161"/>
+      <c r="J14" s="161"/>
+      <c r="K14" s="161"/>
+      <c r="L14" s="88">
         <v>1</v>
       </c>
-      <c r="M14" s="133" t="s">
+      <c r="M14" s="97" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="15" spans="1:14" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="144"/>
-      <c r="B15" s="157">
+      <c r="A15" s="174"/>
+      <c r="B15" s="116">
         <v>40008</v>
       </c>
-      <c r="C15" s="111" t="s">
+      <c r="C15" s="82" t="s">
         <v>56</v>
       </c>
-      <c r="D15" s="111" t="s">
+      <c r="D15" s="82" t="s">
         <v>9</v>
       </c>
-      <c r="E15" s="112" t="s">
+      <c r="E15" s="83" t="s">
         <v>22</v>
       </c>
-      <c r="F15" s="135" t="s">
+      <c r="F15" s="99" t="s">
         <v>70</v>
       </c>
-      <c r="G15" s="147">
+      <c r="G15" s="106">
         <v>0</v>
       </c>
-      <c r="H15" s="111">
+      <c r="H15" s="82">
         <v>10</v>
       </c>
-      <c r="I15" s="111">
+      <c r="I15" s="82">
         <v>20</v>
       </c>
-      <c r="J15" s="111">
+      <c r="J15" s="82">
         <v>40</v>
       </c>
-      <c r="K15" s="111">
+      <c r="K15" s="82">
         <v>80</v>
       </c>
-      <c r="L15" s="111">
+      <c r="L15" s="82">
         <v>130</v>
       </c>
-      <c r="M15" s="135" t="s">
+      <c r="M15" s="99" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A16" s="144"/>
-      <c r="B16" s="157">
+      <c r="A16" s="174"/>
+      <c r="B16" s="116">
         <v>40009</v>
       </c>
-      <c r="C16" s="111" t="s">
+      <c r="C16" s="82" t="s">
         <v>55</v>
       </c>
-      <c r="D16" s="111" t="s">
+      <c r="D16" s="82" t="s">
         <v>9</v>
       </c>
-      <c r="E16" s="112" t="s">
+      <c r="E16" s="83" t="s">
         <v>24</v>
       </c>
-      <c r="F16" s="135" t="s">
+      <c r="F16" s="99" t="s">
         <v>70</v>
       </c>
-      <c r="G16" s="147">
+      <c r="G16" s="106">
         <v>0</v>
       </c>
-      <c r="H16" s="111">
+      <c r="H16" s="82">
         <v>10</v>
       </c>
-      <c r="I16" s="111">
+      <c r="I16" s="82">
         <v>20</v>
       </c>
-      <c r="J16" s="111">
+      <c r="J16" s="82">
         <v>40</v>
       </c>
-      <c r="K16" s="111">
+      <c r="K16" s="82">
         <v>80</v>
       </c>
-      <c r="L16" s="111">
+      <c r="L16" s="82">
         <v>130</v>
       </c>
-      <c r="M16" s="135" t="s">
+      <c r="M16" s="99" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A17" s="144"/>
-      <c r="B17" s="157">
+      <c r="A17" s="174"/>
+      <c r="B17" s="116">
         <v>40010</v>
       </c>
-      <c r="C17" s="111" t="s">
+      <c r="C17" s="82" t="s">
         <v>54</v>
       </c>
-      <c r="D17" s="111" t="s">
+      <c r="D17" s="82" t="s">
         <v>9</v>
       </c>
-      <c r="E17" s="112" t="s">
+      <c r="E17" s="83" t="s">
         <v>23</v>
       </c>
-      <c r="F17" s="135" t="s">
+      <c r="F17" s="99" t="s">
         <v>70</v>
       </c>
-      <c r="G17" s="147">
+      <c r="G17" s="106">
         <v>0</v>
       </c>
-      <c r="H17" s="111">
+      <c r="H17" s="82">
         <v>10</v>
       </c>
-      <c r="I17" s="111">
+      <c r="I17" s="82">
         <v>30</v>
       </c>
-      <c r="J17" s="111">
+      <c r="J17" s="82">
         <v>60</v>
       </c>
-      <c r="K17" s="111">
+      <c r="K17" s="82">
         <v>80</v>
       </c>
-      <c r="L17" s="111">
+      <c r="L17" s="82">
         <v>130</v>
       </c>
-      <c r="M17" s="135" t="s">
+      <c r="M17" s="99" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="18" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="144"/>
-      <c r="B18" s="158">
+      <c r="A18" s="174"/>
+      <c r="B18" s="117">
         <v>40011</v>
       </c>
-      <c r="C18" s="115" t="s">
+      <c r="C18" s="84" t="s">
         <v>53</v>
       </c>
-      <c r="D18" s="115" t="s">
+      <c r="D18" s="84" t="s">
         <v>8</v>
       </c>
-      <c r="E18" s="116" t="s">
+      <c r="E18" s="85" t="s">
         <v>109</v>
       </c>
-      <c r="F18" s="159" t="s">
+      <c r="F18" s="118" t="s">
         <v>7</v>
       </c>
-      <c r="G18" s="148" t="s">
+      <c r="G18" s="107" t="s">
         <v>96</v>
       </c>
-      <c r="H18" s="117" t="s">
+      <c r="H18" s="161" t="s">
         <v>110</v>
       </c>
-      <c r="I18" s="117"/>
-      <c r="J18" s="117"/>
-      <c r="K18" s="117"/>
-      <c r="L18" s="115" t="s">
+      <c r="I18" s="161"/>
+      <c r="J18" s="161"/>
+      <c r="K18" s="161"/>
+      <c r="L18" s="84" t="s">
         <v>97</v>
       </c>
-      <c r="M18" s="133" t="s">
+      <c r="M18" s="97" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="19" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="144"/>
-      <c r="B19" s="157">
+      <c r="A19" s="174"/>
+      <c r="B19" s="116">
         <v>40012</v>
       </c>
-      <c r="C19" s="111" t="s">
+      <c r="C19" s="82" t="s">
         <v>52</v>
       </c>
-      <c r="D19" s="111" t="s">
+      <c r="D19" s="82" t="s">
         <v>9</v>
       </c>
-      <c r="E19" s="112" t="s">
+      <c r="E19" s="83" t="s">
         <v>30</v>
       </c>
-      <c r="F19" s="135" t="s">
+      <c r="F19" s="99" t="s">
         <v>71</v>
       </c>
-      <c r="G19" s="147" t="s">
+      <c r="G19" s="106" t="s">
         <v>91</v>
       </c>
-      <c r="H19" s="111">
+      <c r="H19" s="82">
         <v>0</v>
       </c>
-      <c r="I19" s="111">
+      <c r="I19" s="82">
         <v>0</v>
       </c>
-      <c r="J19" s="111">
+      <c r="J19" s="82">
         <v>1</v>
       </c>
-      <c r="K19" s="111">
+      <c r="K19" s="82">
         <v>1</v>
       </c>
-      <c r="L19" s="111" t="s">
+      <c r="L19" s="82" t="s">
         <v>90</v>
       </c>
-      <c r="M19" s="135" t="s">
+      <c r="M19" s="99" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="20" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="144"/>
-      <c r="B20" s="157">
+      <c r="A20" s="174"/>
+      <c r="B20" s="116">
         <v>40013</v>
       </c>
-      <c r="C20" s="111" t="s">
+      <c r="C20" s="82" t="s">
         <v>51</v>
       </c>
-      <c r="D20" s="111" t="s">
+      <c r="D20" s="82" t="s">
         <v>9</v>
       </c>
-      <c r="E20" s="112" t="s">
+      <c r="E20" s="83" t="s">
         <v>27</v>
       </c>
-      <c r="F20" s="135" t="s">
+      <c r="F20" s="99" t="s">
         <v>10</v>
       </c>
-      <c r="G20" s="147">
+      <c r="G20" s="106">
         <v>0</v>
       </c>
-      <c r="H20" s="113" t="s">
+      <c r="H20" s="162" t="s">
         <v>100</v>
       </c>
-      <c r="I20" s="114"/>
-      <c r="J20" s="114"/>
-      <c r="K20" s="114"/>
-      <c r="L20" s="111">
+      <c r="I20" s="163"/>
+      <c r="J20" s="163"/>
+      <c r="K20" s="163"/>
+      <c r="L20" s="82">
         <v>40</v>
       </c>
-      <c r="M20" s="134" t="s">
+      <c r="M20" s="98" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="21" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="144"/>
-      <c r="B21" s="157">
+      <c r="A21" s="174"/>
+      <c r="B21" s="116">
         <v>40014</v>
       </c>
-      <c r="C21" s="111" t="s">
+      <c r="C21" s="82" t="s">
         <v>50</v>
       </c>
-      <c r="D21" s="111" t="s">
+      <c r="D21" s="82" t="s">
         <v>9</v>
       </c>
-      <c r="E21" s="112" t="s">
+      <c r="E21" s="83" t="s">
         <v>28</v>
       </c>
-      <c r="F21" s="135" t="s">
+      <c r="F21" s="99" t="s">
         <v>29</v>
       </c>
-      <c r="G21" s="147">
+      <c r="G21" s="106">
         <v>0</v>
       </c>
-      <c r="H21" s="113" t="s">
+      <c r="H21" s="162" t="s">
         <v>100</v>
       </c>
-      <c r="I21" s="114"/>
-      <c r="J21" s="114"/>
-      <c r="K21" s="114"/>
-      <c r="L21" s="111">
+      <c r="I21" s="163"/>
+      <c r="J21" s="163"/>
+      <c r="K21" s="163"/>
+      <c r="L21" s="82">
         <v>333.3</v>
       </c>
-      <c r="M21" s="134" t="s">
+      <c r="M21" s="98" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="22" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="144"/>
-      <c r="B22" s="158">
+      <c r="A22" s="174"/>
+      <c r="B22" s="117">
         <v>40015</v>
       </c>
-      <c r="C22" s="115" t="s">
+      <c r="C22" s="84" t="s">
         <v>49</v>
       </c>
-      <c r="D22" s="115" t="s">
+      <c r="D22" s="84" t="s">
         <v>8</v>
       </c>
-      <c r="E22" s="116" t="s">
+      <c r="E22" s="85" t="s">
         <v>37</v>
       </c>
-      <c r="F22" s="159" t="s">
+      <c r="F22" s="118" t="s">
         <v>7</v>
       </c>
-      <c r="G22" s="151">
+      <c r="G22" s="110">
         <v>0</v>
       </c>
-      <c r="H22" s="117" t="s">
+      <c r="H22" s="161" t="s">
         <v>111</v>
       </c>
-      <c r="I22" s="117"/>
-      <c r="J22" s="117"/>
-      <c r="K22" s="117"/>
-      <c r="L22" s="120">
+      <c r="I22" s="161"/>
+      <c r="J22" s="161"/>
+      <c r="K22" s="161"/>
+      <c r="L22" s="88">
         <v>1</v>
       </c>
-      <c r="M22" s="133" t="s">
+      <c r="M22" s="97" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="23" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="144"/>
-      <c r="B23" s="158">
+      <c r="A23" s="174"/>
+      <c r="B23" s="117">
         <v>40016</v>
       </c>
-      <c r="C23" s="115" t="s">
+      <c r="C23" s="84" t="s">
         <v>48</v>
       </c>
-      <c r="D23" s="115" t="s">
+      <c r="D23" s="84" t="s">
         <v>8</v>
       </c>
-      <c r="E23" s="116" t="s">
+      <c r="E23" s="85" t="s">
         <v>34</v>
       </c>
-      <c r="F23" s="159" t="s">
+      <c r="F23" s="118" t="s">
         <v>7</v>
       </c>
-      <c r="G23" s="148" t="s">
+      <c r="G23" s="107" t="s">
         <v>96</v>
       </c>
-      <c r="H23" s="117" t="s">
+      <c r="H23" s="161" t="s">
         <v>110</v>
       </c>
-      <c r="I23" s="117"/>
-      <c r="J23" s="117"/>
-      <c r="K23" s="117"/>
-      <c r="L23" s="115" t="s">
+      <c r="I23" s="161"/>
+      <c r="J23" s="161"/>
+      <c r="K23" s="161"/>
+      <c r="L23" s="84" t="s">
         <v>97</v>
       </c>
-      <c r="M23" s="133" t="s">
+      <c r="M23" s="97" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="24" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="144"/>
-      <c r="B24" s="158">
+      <c r="A24" s="174"/>
+      <c r="B24" s="117">
         <v>40017</v>
       </c>
-      <c r="C24" s="115" t="s">
+      <c r="C24" s="84" t="s">
         <v>47</v>
       </c>
-      <c r="D24" s="115" t="s">
+      <c r="D24" s="84" t="s">
         <v>8</v>
       </c>
-      <c r="E24" s="116" t="s">
+      <c r="E24" s="85" t="s">
         <v>31</v>
       </c>
-      <c r="F24" s="159" t="s">
+      <c r="F24" s="118" t="s">
         <v>7</v>
       </c>
-      <c r="G24" s="148" t="s">
+      <c r="G24" s="107" t="s">
         <v>96</v>
       </c>
-      <c r="H24" s="117" t="s">
+      <c r="H24" s="161" t="s">
         <v>110</v>
       </c>
-      <c r="I24" s="117"/>
-      <c r="J24" s="117"/>
-      <c r="K24" s="117"/>
-      <c r="L24" s="115" t="s">
+      <c r="I24" s="161"/>
+      <c r="J24" s="161"/>
+      <c r="K24" s="161"/>
+      <c r="L24" s="84" t="s">
         <v>97</v>
       </c>
-      <c r="M24" s="133" t="s">
+      <c r="M24" s="97" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="25" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="144"/>
-      <c r="B25" s="158">
+      <c r="A25" s="174"/>
+      <c r="B25" s="117">
         <v>40018</v>
       </c>
-      <c r="C25" s="115" t="s">
+      <c r="C25" s="84" t="s">
         <v>46</v>
       </c>
-      <c r="D25" s="115" t="s">
+      <c r="D25" s="84" t="s">
         <v>8</v>
       </c>
-      <c r="E25" s="116" t="s">
+      <c r="E25" s="85" t="s">
         <v>32</v>
       </c>
-      <c r="F25" s="159" t="s">
+      <c r="F25" s="118" t="s">
         <v>7</v>
       </c>
-      <c r="G25" s="148" t="s">
+      <c r="G25" s="107" t="s">
         <v>96</v>
       </c>
-      <c r="H25" s="117" t="s">
+      <c r="H25" s="161" t="s">
         <v>110</v>
       </c>
-      <c r="I25" s="117"/>
-      <c r="J25" s="117"/>
-      <c r="K25" s="117"/>
-      <c r="L25" s="115" t="s">
+      <c r="I25" s="161"/>
+      <c r="J25" s="161"/>
+      <c r="K25" s="161"/>
+      <c r="L25" s="84" t="s">
         <v>97</v>
       </c>
-      <c r="M25" s="133" t="s">
+      <c r="M25" s="97" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="26" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="144"/>
-      <c r="B26" s="158">
+      <c r="A26" s="174"/>
+      <c r="B26" s="117">
         <v>40019</v>
       </c>
-      <c r="C26" s="115" t="s">
+      <c r="C26" s="84" t="s">
         <v>45</v>
       </c>
-      <c r="D26" s="115" t="s">
+      <c r="D26" s="84" t="s">
         <v>8</v>
       </c>
-      <c r="E26" s="116" t="s">
+      <c r="E26" s="85" t="s">
         <v>33</v>
       </c>
-      <c r="F26" s="159" t="s">
+      <c r="F26" s="118" t="s">
         <v>7</v>
       </c>
-      <c r="G26" s="148" t="s">
+      <c r="G26" s="107" t="s">
         <v>96</v>
       </c>
-      <c r="H26" s="117" t="s">
+      <c r="H26" s="161" t="s">
         <v>110</v>
       </c>
-      <c r="I26" s="117"/>
-      <c r="J26" s="117"/>
-      <c r="K26" s="117"/>
-      <c r="L26" s="115" t="s">
+      <c r="I26" s="161"/>
+      <c r="J26" s="161"/>
+      <c r="K26" s="161"/>
+      <c r="L26" s="84" t="s">
         <v>97</v>
       </c>
-      <c r="M26" s="133" t="s">
+      <c r="M26" s="97" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="27" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="144"/>
-      <c r="B27" s="157">
+      <c r="A27" s="174"/>
+      <c r="B27" s="116">
         <v>40020</v>
       </c>
-      <c r="C27" s="111" t="s">
+      <c r="C27" s="82" t="s">
         <v>44</v>
       </c>
-      <c r="D27" s="111" t="s">
+      <c r="D27" s="82" t="s">
         <v>9</v>
       </c>
-      <c r="E27" s="112" t="s">
+      <c r="E27" s="83" t="s">
         <v>72</v>
       </c>
-      <c r="F27" s="162" t="s">
+      <c r="F27" s="121" t="s">
         <v>73</v>
       </c>
-      <c r="G27" s="150">
+      <c r="G27" s="109">
         <v>0</v>
       </c>
-      <c r="H27" s="113" t="s">
+      <c r="H27" s="162" t="s">
         <v>100</v>
       </c>
-      <c r="I27" s="114"/>
-      <c r="J27" s="114"/>
-      <c r="K27" s="114"/>
-      <c r="L27" s="118">
+      <c r="I27" s="163"/>
+      <c r="J27" s="163"/>
+      <c r="K27" s="163"/>
+      <c r="L27" s="86">
         <v>1000</v>
       </c>
-      <c r="M27" s="134" t="s">
+      <c r="M27" s="98" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="28" spans="1:13" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="145"/>
-      <c r="B28" s="160">
+      <c r="A28" s="175"/>
+      <c r="B28" s="119">
         <v>40021</v>
       </c>
-      <c r="C28" s="136" t="s">
+      <c r="C28" s="100" t="s">
         <v>43</v>
       </c>
-      <c r="D28" s="136" t="s">
+      <c r="D28" s="100" t="s">
         <v>9</v>
       </c>
-      <c r="E28" s="137" t="s">
+      <c r="E28" s="101" t="s">
         <v>75</v>
       </c>
-      <c r="F28" s="163" t="s">
+      <c r="F28" s="122" t="s">
         <v>92</v>
       </c>
-      <c r="G28" s="152">
+      <c r="G28" s="111">
         <v>0</v>
       </c>
-      <c r="H28" s="139" t="s">
+      <c r="H28" s="164" t="s">
         <v>100</v>
       </c>
-      <c r="I28" s="140"/>
-      <c r="J28" s="140"/>
-      <c r="K28" s="140"/>
-      <c r="L28" s="138">
+      <c r="I28" s="165"/>
+      <c r="J28" s="165"/>
+      <c r="K28" s="165"/>
+      <c r="L28" s="102">
         <v>15000</v>
       </c>
-      <c r="M28" s="141" t="s">
+      <c r="M28" s="103" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="29" spans="1:13" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="143" t="s">
+      <c r="A29" s="166" t="s">
         <v>40</v>
       </c>
-      <c r="B29" s="164">
+      <c r="B29" s="123">
         <v>40001</v>
       </c>
-      <c r="C29" s="165" t="s">
+      <c r="C29" s="124" t="s">
         <v>74</v>
       </c>
-      <c r="D29" s="165" t="s">
+      <c r="D29" s="124" t="s">
         <v>9</v>
       </c>
-      <c r="E29" s="166" t="s">
+      <c r="E29" s="125" t="s">
         <v>41</v>
       </c>
-      <c r="F29" s="167" t="s">
+      <c r="F29" s="126" t="s">
         <v>10</v>
       </c>
-      <c r="G29" s="146">
+      <c r="G29" s="105">
         <f>G3</f>
         <v>0</v>
       </c>
-      <c r="H29" s="123" t="s">
+      <c r="H29" s="168" t="s">
         <v>100</v>
       </c>
-      <c r="I29" s="124"/>
-      <c r="J29" s="124"/>
-      <c r="K29" s="124"/>
-      <c r="L29" s="121">
+      <c r="I29" s="169"/>
+      <c r="J29" s="169"/>
+      <c r="K29" s="169"/>
+      <c r="L29" s="89">
         <f>L20</f>
         <v>40</v>
       </c>
-      <c r="M29" s="125" t="s">
+      <c r="M29" s="91" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="30" spans="1:13" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="126"/>
-      <c r="B30" s="153">
+      <c r="A30" s="167"/>
+      <c r="B30" s="112">
         <v>40002</v>
       </c>
-      <c r="C30" s="153" t="s">
+      <c r="C30" s="112" t="s">
         <v>79</v>
       </c>
-      <c r="D30" s="153" t="s">
+      <c r="D30" s="112" t="s">
         <v>8</v>
       </c>
-      <c r="E30" s="154" t="s">
+      <c r="E30" s="113" t="s">
         <v>42</v>
       </c>
-      <c r="F30" s="153" t="s">
+      <c r="F30" s="112" t="s">
         <v>7</v>
       </c>
-      <c r="G30" s="127" t="s">
+      <c r="G30" s="92" t="s">
         <v>96</v>
       </c>
-      <c r="H30" s="128" t="s">
+      <c r="H30" s="170" t="s">
         <v>110</v>
       </c>
-      <c r="I30" s="128"/>
-      <c r="J30" s="128"/>
-      <c r="K30" s="128"/>
-      <c r="L30" s="127" t="s">
+      <c r="I30" s="170"/>
+      <c r="J30" s="170"/>
+      <c r="K30" s="170"/>
+      <c r="L30" s="92" t="s">
         <v>97</v>
       </c>
-      <c r="M30" s="129" t="s">
+      <c r="M30" s="93" t="s">
         <v>104</v>
       </c>
     </row>
@@ -4638,22 +4638,6 @@
     </row>
   </sheetData>
   <mergeCells count="31">
-    <mergeCell ref="L1:L2"/>
-    <mergeCell ref="G1:G2"/>
-    <mergeCell ref="H24:K24"/>
-    <mergeCell ref="H25:K25"/>
-    <mergeCell ref="H26:K26"/>
-    <mergeCell ref="H27:K27"/>
-    <mergeCell ref="H28:K28"/>
-    <mergeCell ref="A29:A30"/>
-    <mergeCell ref="H29:K29"/>
-    <mergeCell ref="H30:K30"/>
-    <mergeCell ref="H18:K18"/>
-    <mergeCell ref="H20:K20"/>
-    <mergeCell ref="H21:K21"/>
-    <mergeCell ref="H22:K22"/>
-    <mergeCell ref="H23:K23"/>
-    <mergeCell ref="H1:K1"/>
     <mergeCell ref="M1:M2"/>
     <mergeCell ref="A3:A7"/>
     <mergeCell ref="H5:K5"/>
@@ -4669,6 +4653,22 @@
     <mergeCell ref="D1:D2"/>
     <mergeCell ref="E1:E2"/>
     <mergeCell ref="F1:F2"/>
+    <mergeCell ref="H27:K27"/>
+    <mergeCell ref="H28:K28"/>
+    <mergeCell ref="A29:A30"/>
+    <mergeCell ref="H29:K29"/>
+    <mergeCell ref="H30:K30"/>
+    <mergeCell ref="L1:L2"/>
+    <mergeCell ref="G1:G2"/>
+    <mergeCell ref="H24:K24"/>
+    <mergeCell ref="H25:K25"/>
+    <mergeCell ref="H26:K26"/>
+    <mergeCell ref="H18:K18"/>
+    <mergeCell ref="H20:K20"/>
+    <mergeCell ref="H21:K21"/>
+    <mergeCell ref="H22:K22"/>
+    <mergeCell ref="H23:K23"/>
+    <mergeCell ref="H1:K1"/>
   </mergeCells>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="98" orientation="landscape" r:id="rId1"/>
